--- a/3. waardelijsten/IMKL2015 - 0.92 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.92 waardelijsten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="38640" yWindow="0" windowWidth="25360" windowHeight="20020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,21 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Waarden!$A$1:$H$370</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Waarden!$A$1:$H$369</definedName>
     <definedName name="IMKL">[1]Toelichting!$B$22</definedName>
     <definedName name="INSPIRE">[1]Toelichting!$B$23</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="663">
   <si>
     <t>Naam</t>
   </si>
@@ -363,9 +368,6 @@
   </si>
   <si>
     <t>annotatiepijl</t>
-  </si>
-  <si>
-    <t>annotatiepijn</t>
   </si>
   <si>
     <t>PNG</t>
@@ -1703,9 +1705,6 @@
   </si>
   <si>
     <t>polybutyleen</t>
-  </si>
-  <si>
-    <t>polyvinylchloride</t>
   </si>
   <si>
     <t>PVCBV</t>
@@ -2129,7 +2128,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2142,7 +2141,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Toelichting"/>
@@ -2464,16 +2463,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2541,7 +2540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2621,7 +2620,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2633,17 +2637,17 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
@@ -2663,7 +2667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -2703,7 +2707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -2743,7 +2747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2763,7 +2767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -2785,28 +2789,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:H369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="A294" sqref="A294:XFD294"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2832,7 +2843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2847,7 +2858,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2855,7 +2866,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -2864,7 +2875,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2881,7 +2892,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -2889,18 +2900,18 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -2908,18 +2919,18 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -2927,18 +2938,18 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -2946,18 +2957,18 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -2973,10 +2984,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -2984,18 +2995,18 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -3003,18 +3014,18 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -3022,20 +3033,20 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -3055,9 +3066,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -3077,9 +3088,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -3099,7 +3110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
@@ -3107,18 +3118,18 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28">
       <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
@@ -3126,18 +3137,18 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -3145,18 +3156,18 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
@@ -3164,18 +3175,18 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -3183,18 +3194,18 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -3202,18 +3213,18 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -3221,18 +3232,18 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
@@ -3240,18 +3251,18 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
@@ -3259,18 +3270,18 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>82</v>
       </c>
@@ -3278,18 +3289,18 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3297,18 +3308,18 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -3316,20 +3327,20 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -3338,20 +3349,20 @@
         <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -3360,20 +3371,20 @@
         <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
@@ -3382,18 +3393,18 @@
         <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
@@ -3401,18 +3412,18 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>85</v>
       </c>
@@ -3420,18 +3431,18 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
@@ -3439,18 +3450,18 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -3458,16 +3469,16 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -3475,16 +3486,16 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -3492,16 +3503,16 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -3509,16 +3520,16 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -3526,16 +3537,16 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="252">
       <c r="A39" s="2" t="s">
         <v>87</v>
       </c>
@@ -3543,18 +3554,18 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="42">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
@@ -3562,18 +3573,18 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="56">
       <c r="A41" s="2" t="s">
         <v>87</v>
       </c>
@@ -3581,18 +3592,18 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="56">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
@@ -3600,18 +3611,18 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="42">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
@@ -3619,18 +3630,18 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -3638,18 +3649,18 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="56">
       <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
@@ -3657,18 +3668,18 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="42">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -3676,18 +3687,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="42">
       <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
@@ -3695,18 +3706,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
@@ -3714,18 +3725,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>87</v>
       </c>
@@ -3733,18 +3744,18 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="350">
       <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
@@ -3752,18 +3763,18 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="42">
       <c r="A51" s="2" t="s">
         <v>87</v>
       </c>
@@ -3771,18 +3782,18 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
@@ -3790,18 +3801,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -3809,20 +3820,20 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1</v>
@@ -3831,20 +3842,20 @@
         <v>88</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>1</v>
@@ -3853,20 +3864,20 @@
         <v>88</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>1</v>
@@ -3875,20 +3886,20 @@
         <v>88</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>1</v>
@@ -3897,20 +3908,20 @@
         <v>88</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
@@ -3919,18 +3930,18 @@
         <v>89</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1</v>
@@ -3939,18 +3950,18 @@
         <v>89</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>1</v>
@@ -3959,18 +3970,18 @@
         <v>89</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>1</v>
@@ -3979,18 +3990,18 @@
         <v>89</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
@@ -3999,18 +4010,18 @@
         <v>89</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1</v>
@@ -4019,18 +4030,18 @@
         <v>89</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1</v>
@@ -4039,20 +4050,20 @@
         <v>90</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1</v>
@@ -4061,20 +4072,20 @@
         <v>90</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1</v>
@@ -4083,18 +4094,18 @@
         <v>90</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
         <v>91</v>
       </c>
@@ -4102,16 +4113,16 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
         <v>91</v>
       </c>
@@ -4119,16 +4130,16 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
         <v>91</v>
       </c>
@@ -4136,16 +4147,16 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
         <v>91</v>
       </c>
@@ -4153,16 +4164,16 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="42">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -4170,18 +4181,18 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -4189,18 +4200,18 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -4208,18 +4219,18 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -4227,18 +4238,18 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -4246,16 +4257,16 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
         <v>93</v>
       </c>
@@ -4263,16 +4274,16 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
         <v>83</v>
       </c>
@@ -4280,18 +4291,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
         <v>83</v>
       </c>
@@ -4299,18 +4310,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -4318,16 +4329,16 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -4335,16 +4346,16 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -4352,16 +4363,16 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -4369,16 +4380,16 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -4389,16 +4400,16 @@
         <v>95</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -4409,7 +4420,7 @@
         <v>95</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>60</v>
@@ -4418,7 +4429,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -4429,16 +4440,16 @@
         <v>95</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -4449,16 +4460,16 @@
         <v>95</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -4469,16 +4480,16 @@
         <v>95</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -4489,16 +4500,16 @@
         <v>95</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -4509,16 +4520,16 @@
         <v>95</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -4526,16 +4537,16 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="28">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -4543,18 +4554,18 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -4562,18 +4573,18 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -4581,18 +4592,18 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -4600,18 +4611,18 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -4619,16 +4630,16 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -4636,16 +4647,16 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -4653,16 +4664,16 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -4670,16 +4681,16 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -4687,16 +4698,16 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
@@ -4704,18 +4715,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
@@ -4723,16 +4734,16 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
         <v>96</v>
       </c>
@@ -4740,16 +4751,16 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -4757,15 +4768,15 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
         <v>96</v>
       </c>
@@ -4773,16 +4784,16 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
         <v>96</v>
       </c>
@@ -4790,16 +4801,16 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -4816,7 +4827,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
         <v>97</v>
       </c>
@@ -4824,16 +4835,16 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
         <v>97</v>
       </c>
@@ -4841,16 +4852,16 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
         <v>97</v>
       </c>
@@ -4858,16 +4869,16 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
         <v>98</v>
       </c>
@@ -4875,16 +4886,16 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
         <v>98</v>
       </c>
@@ -4892,16 +4903,16 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
         <v>98</v>
       </c>
@@ -4909,16 +4920,16 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
         <v>98</v>
       </c>
@@ -4926,16 +4937,16 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
         <v>98</v>
       </c>
@@ -4943,16 +4954,16 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
         <v>98</v>
       </c>
@@ -4960,16 +4971,16 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
         <v>98</v>
       </c>
@@ -4977,16 +4988,16 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
         <v>98</v>
       </c>
@@ -4994,16 +5005,16 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
         <v>98</v>
       </c>
@@ -5011,16 +5022,16 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
         <v>98</v>
       </c>
@@ -5028,16 +5039,16 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
         <v>99</v>
       </c>
@@ -5045,16 +5056,16 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
         <v>99</v>
       </c>
@@ -5062,16 +5073,16 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
         <v>99</v>
       </c>
@@ -5079,16 +5090,16 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
         <v>99</v>
       </c>
@@ -5096,16 +5107,16 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
         <v>98</v>
       </c>
@@ -5113,16 +5124,16 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
         <v>98</v>
       </c>
@@ -5130,16 +5141,16 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
         <v>98</v>
       </c>
@@ -5147,16 +5158,16 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
         <v>98</v>
       </c>
@@ -5164,16 +5175,16 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
         <v>98</v>
       </c>
@@ -5181,16 +5192,16 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
         <v>98</v>
       </c>
@@ -5198,16 +5209,16 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
         <v>98</v>
       </c>
@@ -5215,16 +5226,16 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
         <v>98</v>
       </c>
@@ -5232,16 +5243,16 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
         <v>98</v>
       </c>
@@ -5249,16 +5260,16 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
         <v>98</v>
       </c>
@@ -5266,16 +5277,16 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
         <v>98</v>
       </c>
@@ -5283,16 +5294,16 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
         <v>98</v>
       </c>
@@ -5300,16 +5311,16 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
         <v>98</v>
       </c>
@@ -5317,16 +5328,16 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
         <v>98</v>
       </c>
@@ -5334,16 +5345,16 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
         <v>98</v>
       </c>
@@ -5351,18 +5362,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>1</v>
@@ -5371,18 +5382,18 @@
         <v>100</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>1</v>
@@ -5391,18 +5402,18 @@
         <v>100</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>1</v>
@@ -5411,20 +5422,20 @@
         <v>100</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>1</v>
@@ -5433,7 +5444,7 @@
         <v>100</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>60</v>
@@ -5442,9 +5453,9 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>1</v>
@@ -5453,18 +5464,18 @@
         <v>100</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>1</v>
@@ -5473,18 +5484,18 @@
         <v>100</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>1</v>
@@ -5493,18 +5504,18 @@
         <v>100</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>1</v>
@@ -5513,18 +5524,18 @@
         <v>100</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>1</v>
@@ -5533,18 +5544,18 @@
         <v>100</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>1</v>
@@ -5553,16 +5564,16 @@
         <v>101</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
         <v>99</v>
       </c>
@@ -5570,16 +5581,16 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
         <v>101</v>
       </c>
@@ -5587,16 +5598,16 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
         <v>101</v>
       </c>
@@ -5604,16 +5615,16 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
         <v>101</v>
       </c>
@@ -5621,16 +5632,16 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
         <v>101</v>
       </c>
@@ -5638,16 +5649,16 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
         <v>101</v>
       </c>
@@ -5655,16 +5666,16 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
         <v>101</v>
       </c>
@@ -5672,16 +5683,16 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
         <v>101</v>
       </c>
@@ -5689,16 +5700,16 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
         <v>101</v>
       </c>
@@ -5706,16 +5717,16 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
         <v>101</v>
       </c>
@@ -5723,16 +5734,16 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
         <v>101</v>
       </c>
@@ -5740,16 +5751,16 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
         <v>101</v>
       </c>
@@ -5757,16 +5768,16 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
         <v>101</v>
       </c>
@@ -5774,16 +5785,16 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
         <v>101</v>
       </c>
@@ -5791,16 +5802,16 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
         <v>101</v>
       </c>
@@ -5808,16 +5819,16 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
         <v>101</v>
       </c>
@@ -5825,16 +5836,16 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
         <v>101</v>
       </c>
@@ -5842,16 +5853,16 @@
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
         <v>101</v>
       </c>
@@ -5859,16 +5870,16 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
         <v>101</v>
       </c>
@@ -5876,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
         <v>101</v>
       </c>
@@ -5893,16 +5904,16 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
         <v>101</v>
       </c>
@@ -5910,16 +5921,16 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
         <v>101</v>
       </c>
@@ -5927,16 +5938,16 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
         <v>101</v>
       </c>
@@ -5944,16 +5955,16 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
         <v>101</v>
       </c>
@@ -5961,16 +5972,16 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
         <v>101</v>
       </c>
@@ -5978,16 +5989,16 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
         <v>101</v>
       </c>
@@ -5995,16 +6006,16 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
         <v>101</v>
       </c>
@@ -6012,16 +6023,16 @@
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
         <v>101</v>
       </c>
@@ -6029,16 +6040,16 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
         <v>101</v>
       </c>
@@ -6046,16 +6057,16 @@
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
         <v>101</v>
       </c>
@@ -6063,16 +6074,16 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
         <v>101</v>
       </c>
@@ -6080,16 +6091,16 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
         <v>101</v>
       </c>
@@ -6097,16 +6108,16 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="2" t="s">
         <v>101</v>
       </c>
@@ -6114,16 +6125,16 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
         <v>101</v>
       </c>
@@ -6131,16 +6142,16 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
         <v>101</v>
       </c>
@@ -6148,16 +6159,16 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
         <v>101</v>
       </c>
@@ -6165,16 +6176,16 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
         <v>101</v>
       </c>
@@ -6182,16 +6193,16 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
         <v>102</v>
       </c>
@@ -6199,16 +6210,16 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="2" t="s">
         <v>102</v>
       </c>
@@ -6216,16 +6227,16 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
         <v>102</v>
       </c>
@@ -6233,16 +6244,16 @@
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
         <v>102</v>
       </c>
@@ -6250,16 +6261,16 @@
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
         <v>102</v>
       </c>
@@ -6267,16 +6278,16 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
         <v>102</v>
       </c>
@@ -6287,16 +6298,16 @@
         <v>103</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="2" t="s">
         <v>102</v>
       </c>
@@ -6307,16 +6318,16 @@
         <v>103</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
         <v>102</v>
       </c>
@@ -6327,16 +6338,16 @@
         <v>103</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
         <v>102</v>
       </c>
@@ -6347,16 +6358,16 @@
         <v>103</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
         <v>102</v>
       </c>
@@ -6367,16 +6378,16 @@
         <v>103</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
         <v>102</v>
       </c>
@@ -6387,16 +6398,16 @@
         <v>103</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
         <v>102</v>
       </c>
@@ -6407,16 +6418,16 @@
         <v>103</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
         <v>102</v>
       </c>
@@ -6427,16 +6438,16 @@
         <v>103</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
         <v>102</v>
       </c>
@@ -6447,16 +6458,16 @@
         <v>103</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
         <v>102</v>
       </c>
@@ -6467,16 +6478,16 @@
         <v>103</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
         <v>102</v>
       </c>
@@ -6487,16 +6498,16 @@
         <v>103</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
         <v>102</v>
       </c>
@@ -6507,18 +6518,18 @@
         <v>103</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
         <v>102</v>
       </c>
@@ -6529,16 +6540,16 @@
         <v>103</v>
       </c>
       <c r="D203" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
         <v>102</v>
       </c>
@@ -6549,16 +6560,16 @@
         <v>103</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="2" t="s">
         <v>102</v>
       </c>
@@ -6569,16 +6580,16 @@
         <v>103</v>
       </c>
       <c r="D205" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
         <v>102</v>
       </c>
@@ -6589,16 +6600,16 @@
         <v>103</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
         <v>102</v>
       </c>
@@ -6609,7 +6620,7 @@
         <v>103</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -6617,10 +6628,10 @@
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
         <v>104</v>
       </c>
@@ -6628,16 +6639,16 @@
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="2" t="s">
         <v>104</v>
       </c>
@@ -6645,18 +6656,18 @@
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>1</v>
@@ -6665,20 +6676,20 @@
         <v>104</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>1</v>
@@ -6687,20 +6698,20 @@
         <v>104</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>1</v>
@@ -6709,20 +6720,20 @@
         <v>104</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>1</v>
@@ -6731,18 +6742,18 @@
         <v>104</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
         <v>102</v>
       </c>
@@ -6759,7 +6770,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="2" t="s">
         <v>105</v>
       </c>
@@ -6767,16 +6778,16 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
         <v>105</v>
       </c>
@@ -6784,16 +6795,16 @@
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="2" t="s">
         <v>105</v>
       </c>
@@ -6801,16 +6812,16 @@
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
         <v>105</v>
       </c>
@@ -6818,16 +6829,16 @@
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="2" t="s">
         <v>105</v>
       </c>
@@ -6835,16 +6846,16 @@
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="2" t="s">
         <v>105</v>
       </c>
@@ -6852,16 +6863,16 @@
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="2" t="s">
         <v>105</v>
       </c>
@@ -6869,16 +6880,16 @@
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="2" t="s">
         <v>105</v>
       </c>
@@ -6886,16 +6897,16 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="2" t="s">
         <v>105</v>
       </c>
@@ -6903,16 +6914,16 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="2" t="s">
         <v>105</v>
       </c>
@@ -6920,16 +6931,16 @@
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="2" t="s">
         <v>105</v>
       </c>
@@ -6937,16 +6948,16 @@
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="2" t="s">
         <v>105</v>
       </c>
@@ -6954,16 +6965,16 @@
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="2" t="s">
         <v>106</v>
       </c>
@@ -6971,16 +6982,16 @@
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="2" t="s">
         <v>106</v>
       </c>
@@ -6988,16 +6999,16 @@
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="2" t="s">
         <v>106</v>
       </c>
@@ -7005,16 +7016,16 @@
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="2" t="s">
         <v>106</v>
       </c>
@@ -7022,16 +7033,16 @@
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="2" t="s">
         <v>106</v>
       </c>
@@ -7039,16 +7050,16 @@
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="2" t="s">
         <v>106</v>
       </c>
@@ -7056,16 +7067,16 @@
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="2" t="s">
         <v>106</v>
       </c>
@@ -7073,16 +7084,16 @@
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="2" t="s">
         <v>106</v>
       </c>
@@ -7102,7 +7113,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="2" t="s">
         <v>106</v>
       </c>
@@ -7113,16 +7124,16 @@
         <v>56</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="2" t="s">
         <v>106</v>
       </c>
@@ -7133,16 +7144,16 @@
         <v>56</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="2" t="s">
         <v>106</v>
       </c>
@@ -7153,16 +7164,16 @@
         <v>56</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="2" t="s">
         <v>106</v>
       </c>
@@ -7173,16 +7184,16 @@
         <v>56</v>
       </c>
       <c r="D238" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="2" t="s">
         <v>106</v>
       </c>
@@ -7193,16 +7204,16 @@
         <v>56</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="2" t="s">
         <v>106</v>
       </c>
@@ -7213,16 +7224,16 @@
         <v>56</v>
       </c>
       <c r="D240" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="2" t="s">
         <v>106</v>
       </c>
@@ -7233,16 +7244,16 @@
         <v>56</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="2" t="s">
         <v>106</v>
       </c>
@@ -7253,18 +7264,18 @@
         <v>56</v>
       </c>
       <c r="D242" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>1</v>
@@ -7273,20 +7284,20 @@
         <v>107</v>
       </c>
       <c r="D243" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>1</v>
@@ -7295,20 +7306,20 @@
         <v>107</v>
       </c>
       <c r="D244" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>1</v>
@@ -7317,20 +7328,20 @@
         <v>107</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>1</v>
@@ -7339,18 +7350,18 @@
         <v>107</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
       <c r="H246" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="2" t="s">
         <v>106</v>
       </c>
@@ -7367,7 +7378,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="2" t="s">
         <v>108</v>
       </c>
@@ -7375,16 +7386,16 @@
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="2" t="s">
         <v>108</v>
       </c>
@@ -7392,16 +7403,16 @@
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="2" t="s">
         <v>108</v>
       </c>
@@ -7409,16 +7420,16 @@
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="2" t="s">
         <v>108</v>
       </c>
@@ -7426,16 +7437,16 @@
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="2" t="s">
         <v>108</v>
       </c>
@@ -7443,16 +7454,16 @@
         <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="2" t="s">
         <v>108</v>
       </c>
@@ -7460,16 +7471,16 @@
         <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="2" t="s">
         <v>108</v>
       </c>
@@ -7477,18 +7488,18 @@
         <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="2" t="s">
         <v>108</v>
       </c>
@@ -7496,16 +7507,16 @@
         <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="2" t="s">
         <v>108</v>
       </c>
@@ -7513,16 +7524,16 @@
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="2" t="s">
         <v>108</v>
       </c>
@@ -7539,7 +7550,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="2" t="s">
         <v>109</v>
       </c>
@@ -7547,16 +7558,16 @@
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="2" t="s">
         <v>109</v>
       </c>
@@ -7564,16 +7575,16 @@
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="2" t="s">
         <v>109</v>
       </c>
@@ -7581,18 +7592,18 @@
         <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="2" t="s">
         <v>109</v>
       </c>
@@ -7600,18 +7611,18 @@
         <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="2" t="s">
         <v>109</v>
       </c>
@@ -7619,18 +7630,18 @@
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="2" t="s">
         <v>109</v>
       </c>
@@ -7638,16 +7649,16 @@
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="2" t="s">
         <v>109</v>
       </c>
@@ -7655,16 +7666,16 @@
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="2" t="s">
         <v>109</v>
       </c>
@@ -7672,16 +7683,16 @@
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="2" t="s">
         <v>109</v>
       </c>
@@ -7689,16 +7700,16 @@
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="2" t="s">
         <v>109</v>
       </c>
@@ -7706,16 +7717,16 @@
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="2" t="s">
         <v>109</v>
       </c>
@@ -7723,15 +7734,15 @@
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="2" t="s">
         <v>109</v>
       </c>
@@ -7739,16 +7750,16 @@
         <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="2" t="s">
         <v>109</v>
       </c>
@@ -7756,16 +7767,16 @@
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="2" t="s">
         <v>109</v>
       </c>
@@ -7773,16 +7784,16 @@
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="2" t="s">
         <v>109</v>
       </c>
@@ -7790,16 +7801,16 @@
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="2" t="s">
         <v>109</v>
       </c>
@@ -7807,16 +7818,16 @@
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="2" t="s">
         <v>109</v>
       </c>
@@ -7824,16 +7835,16 @@
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="2" t="s">
         <v>109</v>
       </c>
@@ -7841,15 +7852,15 @@
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="2" t="s">
         <v>109</v>
       </c>
@@ -7857,16 +7868,16 @@
         <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="2" t="s">
         <v>109</v>
       </c>
@@ -7874,16 +7885,16 @@
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="2" t="s">
         <v>109</v>
       </c>
@@ -7891,16 +7902,16 @@
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="2" t="s">
         <v>109</v>
       </c>
@@ -7908,16 +7919,16 @@
         <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="2" t="s">
         <v>109</v>
       </c>
@@ -7925,16 +7936,16 @@
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="2" t="s">
         <v>109</v>
       </c>
@@ -7942,16 +7953,16 @@
         <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="2" t="s">
         <v>109</v>
       </c>
@@ -7959,16 +7970,16 @@
         <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E282" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283" s="2" t="s">
         <v>109</v>
       </c>
@@ -7976,16 +7987,16 @@
         <v>9</v>
       </c>
       <c r="D283" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284" s="2" t="s">
         <v>109</v>
       </c>
@@ -7993,16 +8004,16 @@
         <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285" s="2" t="s">
         <v>109</v>
       </c>
@@ -8010,16 +8021,16 @@
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286" s="2" t="s">
         <v>109</v>
       </c>
@@ -8027,16 +8038,16 @@
         <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287" s="2" t="s">
         <v>109</v>
       </c>
@@ -8044,16 +8055,16 @@
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288" s="2" t="s">
         <v>109</v>
       </c>
@@ -8061,16 +8072,16 @@
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289" s="2" t="s">
         <v>109</v>
       </c>
@@ -8078,16 +8089,16 @@
         <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290" s="2" t="s">
         <v>109</v>
       </c>
@@ -8095,16 +8106,16 @@
         <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E290" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291" s="2" t="s">
         <v>109</v>
       </c>
@@ -8112,16 +8123,16 @@
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" s="2" t="s">
         <v>109</v>
       </c>
@@ -8129,16 +8140,16 @@
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" s="2" t="s">
         <v>109</v>
       </c>
@@ -8146,16 +8157,16 @@
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" s="2" t="s">
         <v>109</v>
       </c>
@@ -8163,7 +8174,7 @@
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>545</v>
@@ -8172,7 +8183,7 @@
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="2" t="s">
         <v>109</v>
       </c>
@@ -8189,7 +8200,7 @@
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" s="2" t="s">
         <v>109</v>
       </c>
@@ -8206,7 +8217,7 @@
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297" s="2" t="s">
         <v>109</v>
       </c>
@@ -8223,7 +8234,7 @@
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" s="2" t="s">
         <v>109</v>
       </c>
@@ -8240,7 +8251,7 @@
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" s="2" t="s">
         <v>109</v>
       </c>
@@ -8257,7 +8268,7 @@
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" s="2" t="s">
         <v>109</v>
       </c>
@@ -8274,7 +8285,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301" s="2" t="s">
         <v>109</v>
       </c>
@@ -8291,7 +8302,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302" s="2" t="s">
         <v>109</v>
       </c>
@@ -8299,16 +8310,16 @@
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303" s="2" t="s">
         <v>109</v>
       </c>
@@ -8316,7 +8327,7 @@
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>562</v>
@@ -8325,7 +8336,7 @@
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304" s="2" t="s">
         <v>109</v>
       </c>
@@ -8342,7 +8353,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305" s="2" t="s">
         <v>109</v>
       </c>
@@ -8359,7 +8370,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306" s="2" t="s">
         <v>109</v>
       </c>
@@ -8376,7 +8387,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307" s="2" t="s">
         <v>109</v>
       </c>
@@ -8393,7 +8404,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308" s="2" t="s">
         <v>109</v>
       </c>
@@ -8404,13 +8415,13 @@
         <v>571</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309" s="2" t="s">
         <v>109</v>
       </c>
@@ -8418,16 +8429,16 @@
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310" s="2" t="s">
         <v>109</v>
       </c>
@@ -8444,7 +8455,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311" s="2" t="s">
         <v>109</v>
       </c>
@@ -8461,7 +8472,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312" s="2" t="s">
         <v>109</v>
       </c>
@@ -8478,7 +8489,7 @@
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313" s="2" t="s">
         <v>109</v>
       </c>
@@ -8495,7 +8506,7 @@
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314" s="2" t="s">
         <v>109</v>
       </c>
@@ -8512,7 +8523,7 @@
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315" s="2" t="s">
         <v>109</v>
       </c>
@@ -8529,7 +8540,7 @@
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316" s="2" t="s">
         <v>109</v>
       </c>
@@ -8546,7 +8557,7 @@
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317" s="2" t="s">
         <v>109</v>
       </c>
@@ -8557,13 +8568,13 @@
         <v>588</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>589</v>
+        <v>508</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318" s="2" t="s">
         <v>109</v>
       </c>
@@ -8571,16 +8582,16 @@
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E318" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319" s="2" t="s">
         <v>109</v>
       </c>
@@ -8597,7 +8608,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320" s="2" t="s">
         <v>109</v>
       </c>
@@ -8614,7 +8625,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321" s="2" t="s">
         <v>109</v>
       </c>
@@ -8631,7 +8642,7 @@
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322" s="2" t="s">
         <v>109</v>
       </c>
@@ -8648,7 +8659,7 @@
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323" s="2" t="s">
         <v>109</v>
       </c>
@@ -8665,7 +8676,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324" s="2" t="s">
         <v>109</v>
       </c>
@@ -8682,7 +8693,7 @@
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325" s="2" t="s">
         <v>109</v>
       </c>
@@ -8699,7 +8710,7 @@
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326" s="2" t="s">
         <v>109</v>
       </c>
@@ -8710,13 +8721,13 @@
         <v>605</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>606</v>
+        <v>650</v>
       </c>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327" s="2" t="s">
         <v>109</v>
       </c>
@@ -8724,16 +8735,16 @@
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328" s="2" t="s">
         <v>109</v>
       </c>
@@ -8741,16 +8752,16 @@
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>653</v>
+        <v>607</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329" s="2" t="s">
         <v>109</v>
       </c>
@@ -8758,16 +8769,16 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330" s="2" t="s">
         <v>109</v>
       </c>
@@ -8775,16 +8786,16 @@
         <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331" s="2" t="s">
         <v>109</v>
       </c>
@@ -8792,16 +8803,16 @@
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332" s="2" t="s">
         <v>109</v>
       </c>
@@ -8809,33 +8820,33 @@
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D333" s="2" t="s">
-        <v>613</v>
+      <c r="D333" s="2">
+        <v>31</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334" s="2" t="s">
         <v>110</v>
       </c>
@@ -8843,16 +8854,16 @@
         <v>9</v>
       </c>
       <c r="D334" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335" s="2" t="s">
         <v>110</v>
       </c>
@@ -8860,16 +8871,16 @@
         <v>9</v>
       </c>
       <c r="D335" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336" s="2" t="s">
         <v>110</v>
       </c>
@@ -8877,16 +8888,16 @@
         <v>9</v>
       </c>
       <c r="D336" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337" s="2" t="s">
         <v>110</v>
       </c>
@@ -8894,16 +8905,16 @@
         <v>9</v>
       </c>
       <c r="D337" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338" s="2" t="s">
         <v>110</v>
       </c>
@@ -8911,16 +8922,16 @@
         <v>9</v>
       </c>
       <c r="D338" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>618</v>
+        <v>153</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339" s="2" t="s">
         <v>110</v>
       </c>
@@ -8928,33 +8939,37 @@
         <v>9</v>
       </c>
       <c r="D339" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>154</v>
+        <v>617</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340" s="2" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D340" s="2">
-        <v>37</v>
+      <c r="D340" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F340" s="2"/>
-      <c r="G340" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341" s="2" t="s">
         <v>47</v>
       </c>
@@ -8962,20 +8977,20 @@
         <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>43</v>
+        <v>660</v>
       </c>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342" s="2" t="s">
         <v>47</v>
       </c>
@@ -8983,20 +8998,20 @@
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>662</v>
+        <v>50</v>
       </c>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343" s="2" t="s">
         <v>47</v>
       </c>
@@ -9004,20 +9019,20 @@
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>50</v>
+        <v>618</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>50</v>
+        <v>618</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>50</v>
+        <v>618</v>
       </c>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344" s="2" t="s">
         <v>47</v>
       </c>
@@ -9025,20 +9040,20 @@
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345" s="2" t="s">
         <v>47</v>
       </c>
@@ -9046,20 +9061,20 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>621</v>
+        <v>51</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>621</v>
+        <v>51</v>
       </c>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346" s="2" t="s">
         <v>47</v>
       </c>
@@ -9067,7 +9082,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>51</v>
+        <v>621</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>622</v>
@@ -9076,11 +9091,11 @@
         <v>45</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>51</v>
+        <v>621</v>
       </c>
       <c r="H346" s="2"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347" s="2" t="s">
         <v>47</v>
       </c>
@@ -9091,7 +9106,7 @@
         <v>623</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>45</v>
@@ -9101,7 +9116,7 @@
       </c>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348" s="2" t="s">
         <v>47</v>
       </c>
@@ -9109,20 +9124,20 @@
         <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349" s="2" t="s">
         <v>47</v>
       </c>
@@ -9130,20 +9145,20 @@
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350" s="2" t="s">
         <v>47</v>
       </c>
@@ -9151,20 +9166,20 @@
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351" s="2" t="s">
         <v>47</v>
       </c>
@@ -9172,20 +9187,20 @@
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352" s="2" t="s">
         <v>47</v>
       </c>
@@ -9193,20 +9208,20 @@
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353" s="2" t="s">
         <v>47</v>
       </c>
@@ -9214,20 +9229,20 @@
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354" s="2" t="s">
         <v>47</v>
       </c>
@@ -9235,20 +9250,20 @@
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355" s="2" t="s">
         <v>47</v>
       </c>
@@ -9256,20 +9271,20 @@
         <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8">
       <c r="A356" s="2" t="s">
         <v>47</v>
       </c>
@@ -9277,20 +9292,20 @@
         <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>633</v>
+        <v>445</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>633</v>
+        <v>445</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>633</v>
+        <v>445</v>
       </c>
       <c r="H356" s="2"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8">
       <c r="A357" s="2" t="s">
         <v>47</v>
       </c>
@@ -9298,20 +9313,20 @@
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>446</v>
+        <v>632</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>446</v>
+        <v>632</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>446</v>
+        <v>632</v>
       </c>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358" s="2" t="s">
         <v>47</v>
       </c>
@@ -9319,20 +9334,20 @@
         <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359" s="2" t="s">
         <v>47</v>
       </c>
@@ -9340,7 +9355,7 @@
         <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>635</v>
@@ -9353,7 +9368,7 @@
       </c>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8">
       <c r="A360" s="2" t="s">
         <v>47</v>
       </c>
@@ -9364,17 +9379,17 @@
         <v>636</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8">
       <c r="A361" s="2" t="s">
         <v>47</v>
       </c>
@@ -9382,20 +9397,20 @@
         <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H361" s="2"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8">
       <c r="A362" s="2" t="s">
         <v>47</v>
       </c>
@@ -9403,7 +9418,7 @@
         <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>639</v>
@@ -9412,11 +9427,11 @@
         <v>45</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8">
       <c r="A363" s="2" t="s">
         <v>47</v>
       </c>
@@ -9427,17 +9442,17 @@
         <v>640</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364" s="2" t="s">
         <v>47</v>
       </c>
@@ -9445,7 +9460,7 @@
         <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>642</v>
@@ -9454,11 +9469,11 @@
         <v>45</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365" s="2" t="s">
         <v>47</v>
       </c>
@@ -9469,7 +9484,7 @@
         <v>643</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>45</v>
@@ -9479,7 +9494,7 @@
       </c>
       <c r="H365" s="2"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366" s="2" t="s">
         <v>47</v>
       </c>
@@ -9487,20 +9502,20 @@
         <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8">
       <c r="A367" s="2" t="s">
         <v>47</v>
       </c>
@@ -9508,20 +9523,20 @@
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8">
       <c r="A368" s="2" t="s">
         <v>47</v>
       </c>
@@ -9529,7 +9544,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>647</v>
@@ -9538,11 +9553,11 @@
         <v>45</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369" s="2" t="s">
         <v>47</v>
       </c>
@@ -9550,43 +9565,27 @@
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>648</v>
+        <v>447</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>649</v>
+        <v>447</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>664</v>
+        <v>447</v>
       </c>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F370" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G370" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H370" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H370"/>
+  <autoFilter ref="A1:H369"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/3. waardelijsten/IMKL2015 - 0.92 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.92 waardelijsten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38640" yWindow="0" windowWidth="25360" windowHeight="20020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,11 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Waarden!$A$1:$H$369</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Waarden!$A$1:$H$373</definedName>
     <definedName name="IMKL">[1]Toelichting!$B$22</definedName>
     <definedName name="INSPIRE">[1]Toelichting!$B$23</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="662">
   <si>
     <t>Naam</t>
   </si>
@@ -307,12 +307,6 @@
     <t>EffectScenarionType</t>
   </si>
   <si>
-    <t>ContainerLeidingElementTypeValue</t>
-  </si>
-  <si>
-    <t>BuisleidingenType</t>
-  </si>
-  <si>
     <t>ElectricityAppurtenanceTypeIMKLValue</t>
   </si>
   <si>
@@ -322,15 +316,6 @@
     <t>TelecommunicationsAppurtenanceIMKLTypeValue</t>
   </si>
   <si>
-    <t>TelecommunicationsCableMaterialTypeValue</t>
-  </si>
-  <si>
-    <t>OilGasChemicalsAppurtenanceIMKLTypeValue</t>
-  </si>
-  <si>
-    <t>OilGasChemicalsProductIMKLTypeValue</t>
-  </si>
-  <si>
     <t>OilGasChemicalsAppurtenanceTypeValue</t>
   </si>
   <si>
@@ -358,12 +343,6 @@
     <t>ThermalAppurtenanceTypeIMKLValue</t>
   </si>
   <si>
-    <t>PipeMaterialTypeValue</t>
-  </si>
-  <si>
-    <t>BuisleidingtypeTypeValue</t>
-  </si>
-  <si>
     <t>algemeen</t>
   </si>
   <si>
@@ -413,12 +392,6 @@
   </si>
   <si>
     <t>Netbeheerder heeft geen utiliteitsnet in dit gebied maar heeft wel een belang bij deze melding. De bijlage geeft het belang weer.</t>
-  </si>
-  <si>
-    <t>verzoekTotContact</t>
-  </si>
-  <si>
-    <t>verzoek tot contact</t>
   </si>
   <si>
     <t>Netbeheerder verzoekt tot opnemen contact.</t>
@@ -801,38 +774,6 @@
     <t>scherfwerking</t>
   </si>
   <si>
-    <t>toren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eenvoudig toren-object dat dienst kan doen als drager van nutsvoorzieningenobjecten van een of meer nutsvoorzieningnetten.
-</t>
-  </si>
-  <si>
-    <t>mast</t>
-  </si>
-  <si>
-    <t>Eenvoudig mast-object dat dienst kan doen als drager van nutsvoorzieningenobjecten van een of meer nutsvoorzieningnetten</t>
-  </si>
-  <si>
-    <t>mangat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eenvoudig omhullingsobject dat een of meer nutsvoorzieningennetobjecten kan bevatten.
-</t>
-  </si>
-  <si>
-    <t>kast</t>
-  </si>
-  <si>
-    <t>Eenvoudig kast-object dat nutsvoorzieningenobjecten kan bevatten die tot een of meer nutsvoorzieningennetwerken behoren.</t>
-  </si>
-  <si>
-    <t>technischGebouw</t>
-  </si>
-  <si>
-    <t>technisch gebouw</t>
-  </si>
-  <si>
     <t>Bestaande topografie die door de netbeheerder specifiek geregistreerd is ter bepaling van de locatie van een leiding.</t>
   </si>
   <si>
@@ -2034,15 +1975,6 @@
     <t>ConditionOfFacilityIMKLValue</t>
   </si>
   <si>
-    <t>RelatedPartyRoleIMKLValue</t>
-  </si>
-  <si>
-    <t>UtilityDeliveryTypeIMKLValue</t>
-  </si>
-  <si>
-    <t>WarningTypeIMKLValue</t>
-  </si>
-  <si>
     <t>OilGasChemicalsAppurtenanceTypeIMKLValue</t>
   </si>
   <si>
@@ -2052,9 +1984,6 @@
     <t>WaterTypeIMKLValue</t>
   </si>
   <si>
-    <t>SewerWaterTypeIMKLValue</t>
-  </si>
-  <si>
     <t>rijbaan_lokale_weg</t>
   </si>
   <si>
@@ -2062,13 +1991,79 @@
   </si>
   <si>
     <t>inspectie-_/_rioolput</t>
+  </si>
+  <si>
+    <t>vegetatieObject</t>
+  </si>
+  <si>
+    <t>vegetatie object</t>
+  </si>
+  <si>
+    <t>SolitaryVegetationObject</t>
+  </si>
+  <si>
+    <t>Nauwkeurigheidsgraad onbekend.</t>
+  </si>
+  <si>
+    <t>verzoekContact</t>
+  </si>
+  <si>
+    <t>verzoek contact</t>
+  </si>
+  <si>
+    <t>LabelpositieValue</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Label aangrijpingspunt horizontaal  is links; label aangrijpingspunt verticaal  is onder.</t>
+  </si>
+  <si>
+    <t>BuisleidingenTypeValue</t>
+  </si>
+  <si>
+    <t>PipeMaterialTypeIMKLValue</t>
+  </si>
+  <si>
+    <t>TelecommunicationsCableMaterialTypeIMKLValue</t>
+  </si>
+  <si>
+    <t>UtilityNetworkTypeIMKLValue</t>
+  </si>
+  <si>
+    <t>industrieel</t>
+  </si>
+  <si>
+    <t>afval</t>
+  </si>
+  <si>
+    <t>Solitair vegetatieobject of lijn- of vlakvormige groep gelijksoortige vegetatieobjecten met een beperkte omvang.</t>
+  </si>
+  <si>
+    <t>Industrieel afvalwater.</t>
+  </si>
+  <si>
+    <t>Afvalwater.</t>
+  </si>
+  <si>
+    <t>Type komt niet voor in waardelijst.</t>
+  </si>
+  <si>
+    <t>Type is onbekend.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2092,12 +2087,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2116,7 +2117,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2125,10 +2126,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2458,18 +2464,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2630,21 +2636,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2799,22 +2805,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H369"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="A294" sqref="A294:XFD294"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2843,7 +2853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2854,11 +2864,11 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2875,7 +2885,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2892,7 +2902,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -2900,18 +2910,18 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -2919,18 +2929,18 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -2938,18 +2948,18 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -2957,18 +2967,18 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -2976,18 +2986,18 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -2995,18 +3005,18 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -3014,18 +3024,18 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -3033,6553 +3043,6580 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>128</v>
+        <v>644</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>129</v>
+        <v>645</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" hidden="1">
+      <c r="A13" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" hidden="1">
+      <c r="A14" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6">
+        <v>31</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" hidden="1">
+      <c r="A15" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" hidden="1">
+      <c r="A16" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>33</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" hidden="1">
+      <c r="A17" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" hidden="1">
+      <c r="A18" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" hidden="1">
+      <c r="A19" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" hidden="1">
+      <c r="A20" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1">
+      <c r="A21" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28">
-      <c r="A17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>633</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>633</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="2" t="s">
-        <v>653</v>
+        <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" s="2" t="s">
-        <v>653</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" s="2" t="s">
-        <v>653</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="252">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="42">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="56">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="56">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="42">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="56">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="42">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" hidden="1">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="42">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="350">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="42">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="H51" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54" s="2" t="s">
-        <v>654</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55" s="2" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>213</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56" s="2" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57" s="2" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58" s="2" t="s">
-        <v>654</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" hidden="1">
       <c r="A59" s="2" t="s">
-        <v>654</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60" s="2" t="s">
-        <v>654</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" hidden="1">
       <c r="A61" s="2" t="s">
-        <v>654</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" hidden="1">
       <c r="A62" s="2" t="s">
-        <v>654</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" hidden="1">
       <c r="A63" s="2" t="s">
-        <v>654</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="H63" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" hidden="1">
       <c r="A64" s="2" t="s">
-        <v>655</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65" s="2" t="s">
-        <v>655</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66" s="2" t="s">
-        <v>655</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="H68" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="H69" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" ht="42">
+      <c r="H70" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>634</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>634</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="28">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>634</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>634</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>249</v>
+        <v>629</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>249</v>
+        <v>629</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>634</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>634</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>634</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>155</v>
+        <v>287</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>634</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" ht="28">
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" hidden="1">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" hidden="1">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" hidden="1">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="H98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8" hidden="1">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" hidden="1">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>635</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" hidden="1">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>635</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>59</v>
+        <v>293</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" s="2" t="s">
-        <v>97</v>
+        <v>635</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>635</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="2" t="s">
-        <v>97</v>
+        <v>635</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" hidden="1">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>648</v>
+        <v>329</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>648</v>
+        <v>329</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" hidden="1">
       <c r="A115" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" hidden="1">
       <c r="A116" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" hidden="1">
       <c r="A120" s="2" t="s">
-        <v>99</v>
+        <v>635</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" hidden="1">
       <c r="A121" s="2" t="s">
-        <v>99</v>
+        <v>635</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" hidden="1">
       <c r="A122" s="2" t="s">
-        <v>99</v>
+        <v>635</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" hidden="1">
       <c r="A123" s="2" t="s">
-        <v>99</v>
+        <v>635</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" hidden="1">
       <c r="A124" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" hidden="1">
       <c r="A126" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" hidden="1">
       <c r="A127" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" hidden="1">
       <c r="A128" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" hidden="1">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" hidden="1">
       <c r="A130" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" hidden="1">
       <c r="A131" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" hidden="1">
       <c r="A132" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" hidden="1">
       <c r="A133" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" hidden="1">
       <c r="A134" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" hidden="1">
       <c r="A135" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" hidden="1">
       <c r="A137" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" hidden="1">
       <c r="A138" s="2" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" hidden="1">
       <c r="A139" s="2" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" hidden="1">
       <c r="A140" s="2" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" hidden="1">
       <c r="A141" s="2" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-      <c r="H141" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="1:8" hidden="1">
       <c r="A142" s="2" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>260</v>
+        <v>358</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>60</v>
+        <v>358</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" hidden="1">
       <c r="A143" s="2" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" hidden="1">
       <c r="A144" s="2" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" hidden="1">
       <c r="A145" s="2" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>338</v>
+        <v>195</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146" s="2" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" hidden="1">
       <c r="A147" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>341</v>
+        <v>468</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>342</v>
+        <v>469</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>343</v>
+        <v>470</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>344</v>
+        <v>470</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149" s="2" t="s">
-        <v>99</v>
+        <v>652</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="H149" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="H150" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1">
       <c r="A151" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>347</v>
+        <v>475</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>347</v>
+        <v>475</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="H151" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>348</v>
+        <v>477</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>348</v>
+        <v>477</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" hidden="1">
       <c r="A153" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>349</v>
+        <v>478</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>349</v>
+        <v>478</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" hidden="1">
       <c r="A154" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" hidden="1">
       <c r="A155" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>351</v>
+        <v>479</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>351</v>
+        <v>480</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" hidden="1">
       <c r="A156" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>352</v>
+        <v>481</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>352</v>
+        <v>482</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" hidden="1">
       <c r="A157" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>353</v>
+        <v>483</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>353</v>
+        <v>484</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" hidden="1">
       <c r="A158" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>355</v>
+        <v>486</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>355</v>
+        <v>486</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" hidden="1">
       <c r="A160" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>356</v>
+        <v>487</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>356</v>
+        <v>488</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" hidden="1">
       <c r="A161" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>357</v>
+        <v>489</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" hidden="1">
       <c r="A162" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>358</v>
+        <v>491</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>358</v>
+        <v>492</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" hidden="1">
       <c r="A163" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>359</v>
+        <v>493</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>359</v>
+        <v>494</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" hidden="1">
       <c r="A164" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>360</v>
+        <v>495</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>360</v>
+        <v>496</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" hidden="1">
       <c r="A165" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>361</v>
+        <v>497</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>361</v>
+        <v>498</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" hidden="1">
       <c r="A166" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>362</v>
+        <v>499</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>362</v>
+        <v>499</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" hidden="1">
       <c r="A167" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>363</v>
+        <v>500</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>363</v>
+        <v>501</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" hidden="1">
       <c r="A168" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>364</v>
+        <v>502</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>364</v>
+        <v>502</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" hidden="1">
       <c r="A169" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>365</v>
+        <v>503</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>365</v>
+        <v>503</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" hidden="1">
       <c r="A170" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>366</v>
+        <v>504</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>366</v>
+        <v>504</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" hidden="1">
       <c r="A171" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>367</v>
+        <v>505</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>367</v>
+        <v>506</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" hidden="1">
       <c r="A172" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>368</v>
+        <v>507</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>368</v>
+        <v>508</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" hidden="1">
       <c r="A173" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>369</v>
+        <v>509</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>369</v>
+        <v>510</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" hidden="1">
       <c r="A174" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>370</v>
+        <v>511</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>370</v>
+        <v>512</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" hidden="1">
       <c r="A175" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>371</v>
+        <v>513</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>371</v>
+        <v>514</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" hidden="1">
       <c r="A176" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>372</v>
+        <v>515</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>372</v>
+        <v>516</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" hidden="1">
       <c r="A177" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>373</v>
+        <v>517</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>373</v>
+        <v>518</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" hidden="1">
       <c r="A178" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>374</v>
+        <v>519</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>374</v>
+        <v>510</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" hidden="1">
       <c r="A179" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>375</v>
+        <v>520</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>375</v>
+        <v>521</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>376</v>
+        <v>487</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>376</v>
+        <v>630</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" hidden="1">
       <c r="A181" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>377</v>
+        <v>489</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>377</v>
+        <v>522</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" hidden="1">
       <c r="A182" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>378</v>
+        <v>523</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>378</v>
+        <v>524</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" hidden="1">
       <c r="A183" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>379</v>
+        <v>525</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>379</v>
+        <v>526</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" hidden="1">
       <c r="A184" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>204</v>
+        <v>527</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>204</v>
+        <v>528</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" hidden="1">
       <c r="A185" s="2" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" hidden="1">
       <c r="A186" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>322</v>
+        <v>531</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>322</v>
+        <v>532</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" hidden="1">
       <c r="A187" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>381</v>
+        <v>533</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>381</v>
+        <v>534</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" hidden="1">
       <c r="A188" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>382</v>
+        <v>535</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>382</v>
+        <v>536</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" hidden="1">
       <c r="A189" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>383</v>
+        <v>537</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>383</v>
+        <v>538</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" hidden="1">
       <c r="A190" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>384</v>
+        <v>539</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>384</v>
+        <v>540</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" hidden="1">
       <c r="A191" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>385</v>
+        <v>505</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>386</v>
+        <v>541</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" hidden="1">
       <c r="A192" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>387</v>
+        <v>542</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>387</v>
+        <v>543</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" hidden="1">
       <c r="A193" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>388</v>
+        <v>544</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>389</v>
+        <v>545</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" hidden="1">
       <c r="A194" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>390</v>
+        <v>546</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>391</v>
+        <v>547</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" hidden="1">
       <c r="A195" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>392</v>
+        <v>548</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>393</v>
+        <v>549</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" hidden="1">
       <c r="A196" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>394</v>
+        <v>550</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>395</v>
+        <v>551</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" hidden="1">
       <c r="A197" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>396</v>
+        <v>552</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>397</v>
+        <v>515</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" hidden="1">
       <c r="A198" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>398</v>
+        <v>553</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>398</v>
+        <v>554</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" hidden="1">
       <c r="A199" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>399</v>
+        <v>555</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" hidden="1">
       <c r="A200" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>401</v>
+        <v>557</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>402</v>
+        <v>558</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" hidden="1">
       <c r="A201" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>403</v>
+        <v>559</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>404</v>
+        <v>560</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" hidden="1">
       <c r="A202" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>405</v>
+        <v>561</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>406</v>
+        <v>562</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
-      <c r="H202" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="1:8" hidden="1">
       <c r="A203" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>408</v>
+        <v>563</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>409</v>
+        <v>564</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" hidden="1">
       <c r="A204" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>410</v>
+        <v>565</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>411</v>
+        <v>566</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" hidden="1">
       <c r="A205" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>412</v>
+        <v>567</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>413</v>
+        <v>568</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" hidden="1">
       <c r="A206" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>414</v>
+        <v>569</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" hidden="1">
       <c r="A207" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>416</v>
+        <v>570</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>8</v>
+        <v>571</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
-      <c r="H207" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" spans="1:8" hidden="1">
       <c r="A208" s="2" t="s">
-        <v>104</v>
+        <v>652</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>418</v>
+        <v>572</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>418</v>
+        <v>573</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" hidden="1">
       <c r="A209" s="2" t="s">
-        <v>104</v>
+        <v>652</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>419</v>
+        <v>574</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>419</v>
+        <v>575</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" hidden="1">
       <c r="A210" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>420</v>
+        <v>576</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>421</v>
+        <v>577</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
-      <c r="H210" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" spans="1:8" hidden="1">
       <c r="A211" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>423</v>
+        <v>578</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>424</v>
+        <v>579</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
-      <c r="H211" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" spans="1:8" hidden="1">
       <c r="A212" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>426</v>
+        <v>580</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>427</v>
+        <v>581</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
-      <c r="H212" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="H212" s="2"/>
+    </row>
+    <row r="213" spans="1:8" hidden="1">
       <c r="A213" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>429</v>
+        <v>582</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>430</v>
+        <v>583</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
-      <c r="H213" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="H213" s="2"/>
+    </row>
+    <row r="214" spans="1:8" hidden="1">
       <c r="A214" s="2" t="s">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>59</v>
+        <v>584</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>60</v>
+        <v>585</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" hidden="1">
       <c r="A215" s="2" t="s">
-        <v>105</v>
+        <v>652</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>432</v>
+        <v>586</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>432</v>
+        <v>631</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" hidden="1">
       <c r="A216" s="2" t="s">
-        <v>105</v>
+        <v>652</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>433</v>
+        <v>587</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>433</v>
+        <v>632</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" hidden="1">
       <c r="A217" s="2" t="s">
-        <v>105</v>
+        <v>652</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>434</v>
+        <v>588</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>434</v>
+        <v>588</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" hidden="1">
       <c r="A218" s="2" t="s">
-        <v>105</v>
+        <v>652</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>435</v>
+        <v>589</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>436</v>
+        <v>589</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" hidden="1">
       <c r="A219" s="2" t="s">
-        <v>105</v>
+        <v>652</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>437</v>
+        <v>590</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>437</v>
+        <v>590</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" hidden="1">
       <c r="A220" s="2" t="s">
-        <v>105</v>
+        <v>652</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>438</v>
+        <v>591</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>438</v>
+        <v>591</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" hidden="1">
       <c r="A221" s="2" t="s">
-        <v>105</v>
+        <v>652</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>439</v>
+        <v>592</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>439</v>
+        <v>592</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" hidden="1">
       <c r="A222" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>440</v>
+        <v>150</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>440</v>
+        <v>151</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="H222" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" hidden="1">
       <c r="A223" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>441</v>
+        <v>153</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>441</v>
+        <v>154</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="H223" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" hidden="1">
       <c r="A224" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>442</v>
+        <v>156</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>442</v>
+        <v>157</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="H224" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" hidden="1">
       <c r="A225" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" hidden="1">
       <c r="A226" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" hidden="1">
       <c r="A227" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" hidden="1">
       <c r="A228" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" hidden="1">
       <c r="A229" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" hidden="1">
       <c r="A230" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" hidden="1">
       <c r="A231" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" hidden="1">
       <c r="A232" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" hidden="1">
       <c r="A233" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" hidden="1">
       <c r="A234" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>57</v>
+        <v>423</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>58</v>
+        <v>423</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" hidden="1">
       <c r="A235" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" hidden="1">
       <c r="A236" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" hidden="1">
       <c r="A237" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>147</v>
+        <v>426</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" hidden="1">
       <c r="A238" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" hidden="1">
       <c r="A239" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" hidden="1">
       <c r="A240" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" hidden="1">
       <c r="A241" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" hidden="1">
       <c r="A242" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" hidden="1">
       <c r="A243" s="2" t="s">
-        <v>659</v>
+        <v>101</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
-      <c r="H243" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="H243" s="2"/>
+    </row>
+    <row r="244" spans="1:8" hidden="1">
       <c r="A244" s="2" t="s">
-        <v>659</v>
+        <v>101</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>469</v>
+        <v>57</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>470</v>
+        <v>58</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
-      <c r="H244" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="H244" s="2"/>
+    </row>
+    <row r="245" spans="1:8" hidden="1">
       <c r="A245" s="2" t="s">
-        <v>659</v>
+        <v>101</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
-      <c r="H245" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="H245" s="2"/>
+    </row>
+    <row r="246" spans="1:8" hidden="1">
       <c r="A246" s="2" t="s">
-        <v>659</v>
+        <v>101</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>475</v>
+        <v>303</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
-      <c r="H246" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="H246" s="2"/>
+    </row>
+    <row r="247" spans="1:8" hidden="1">
       <c r="A247" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>59</v>
+        <v>436</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" hidden="1">
       <c r="A248" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" hidden="1">
       <c r="A249" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" hidden="1">
       <c r="A250" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" hidden="1">
       <c r="A251" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" hidden="1">
       <c r="A252" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" hidden="1">
       <c r="A253" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>481</v>
+        <v>59</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>481</v>
+        <v>60</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" hidden="1">
       <c r="A254" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" hidden="1">
       <c r="A255" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-    </row>
-    <row r="256" spans="1:8">
+      <c r="H255" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" hidden="1">
       <c r="A256" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-    </row>
-    <row r="257" spans="1:8">
+      <c r="H256" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" hidden="1">
       <c r="A257" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>59</v>
+        <v>456</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>60</v>
+        <v>456</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-    </row>
-    <row r="258" spans="1:8">
+      <c r="H257" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" hidden="1">
       <c r="A258" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>487</v>
+        <v>265</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>488</v>
+        <v>265</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" hidden="1">
       <c r="A259" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>489</v>
+        <v>266</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>489</v>
+        <v>266</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" hidden="1">
       <c r="A260" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>490</v>
+        <v>267</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>490</v>
+        <v>267</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
-      <c r="H260" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+      <c r="H260" s="2"/>
+    </row>
+    <row r="261" spans="1:8" hidden="1">
       <c r="A261" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>492</v>
+        <v>236</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>492</v>
+        <v>236</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
-      <c r="H261" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+      <c r="H261" s="2"/>
+    </row>
+    <row r="262" spans="1:8" hidden="1">
       <c r="A262" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>494</v>
+        <v>268</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>494</v>
+        <v>269</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" hidden="1">
       <c r="A263" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>496</v>
+        <v>271</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>496</v>
+        <v>271</v>
       </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-    </row>
-    <row r="264" spans="1:8">
+    </row>
+    <row r="264" spans="1:8" hidden="1">
       <c r="A264" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>497</v>
+        <v>272</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>497</v>
+        <v>272</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" hidden="1">
       <c r="A265" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" hidden="1">
       <c r="A266" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>498</v>
+        <v>275</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>499</v>
+        <v>275</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" hidden="1">
       <c r="A267" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>500</v>
+        <v>276</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>501</v>
+        <v>276</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" hidden="1">
       <c r="A268" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>502</v>
+        <v>59</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>503</v>
+        <v>60</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
-    </row>
-    <row r="269" spans="1:8">
+      <c r="H268" s="2"/>
+    </row>
+    <row r="269" spans="1:8" hidden="1">
       <c r="A269" s="2" t="s">
-        <v>109</v>
+        <v>653</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>504</v>
+        <v>277</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>504</v>
+        <v>277</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" hidden="1">
       <c r="A270" s="2" t="s">
-        <v>109</v>
+        <v>653</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>505</v>
+        <v>278</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>505</v>
+        <v>278</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-    </row>
-    <row r="271" spans="1:8">
+    </row>
+    <row r="271" spans="1:8" hidden="1">
       <c r="A271" s="2" t="s">
-        <v>109</v>
+        <v>653</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>506</v>
+        <v>279</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" hidden="1">
       <c r="A272" s="2" t="s">
-        <v>109</v>
+        <v>653</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>508</v>
+        <v>144</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>509</v>
+        <v>144</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" ht="285">
       <c r="A273" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>510</v>
+        <v>164</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>511</v>
+        <v>165</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-    </row>
-    <row r="274" spans="1:8">
+      <c r="H273" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="45">
       <c r="A274" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>512</v>
+        <v>167</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>513</v>
+        <v>167</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-    </row>
-    <row r="275" spans="1:8">
+      <c r="H274" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="75">
       <c r="A275" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>514</v>
+        <v>169</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>515</v>
+        <v>170</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
-    </row>
-    <row r="276" spans="1:8">
+      <c r="H275" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="75">
       <c r="A276" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>516</v>
+        <v>172</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>517</v>
+        <v>173</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-    </row>
-    <row r="277" spans="1:8">
+      <c r="H276" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="45">
       <c r="A277" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>518</v>
+        <v>175</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>518</v>
+        <v>176</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
+      <c r="H277" s="5" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>519</v>
+        <v>178</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>520</v>
+        <v>179</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-    </row>
-    <row r="279" spans="1:8">
+      <c r="H278" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="60">
       <c r="A279" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>521</v>
+        <v>181</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>521</v>
+        <v>181</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-    </row>
-    <row r="280" spans="1:8">
+      <c r="H279" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="60">
       <c r="A280" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>522</v>
+        <v>183</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>522</v>
+        <v>183</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-    </row>
-    <row r="281" spans="1:8">
+      <c r="H280" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="75">
       <c r="A281" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>523</v>
+        <v>185</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>523</v>
+        <v>185</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
+      <c r="H281" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>524</v>
+        <v>187</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>525</v>
+        <v>188</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
+      <c r="H282" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>526</v>
+        <v>190</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>527</v>
+        <v>191</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-    </row>
-    <row r="284" spans="1:8">
+      <c r="H283" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="390">
       <c r="A284" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>528</v>
+        <v>193</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>529</v>
+        <v>193</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-    </row>
-    <row r="285" spans="1:8">
+      <c r="H284" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="45">
       <c r="A285" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>530</v>
+        <v>195</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>531</v>
+        <v>195</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
+      <c r="H285" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>532</v>
+        <v>197</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>533</v>
+        <v>197</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
-      <c r="H286" s="2"/>
+      <c r="H286" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>534</v>
+        <v>144</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>535</v>
+        <v>144</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-    </row>
-    <row r="288" spans="1:8">
+      <c r="H287" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" hidden="1">
       <c r="A288" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>536</v>
+        <v>458</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>537</v>
+        <v>458</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" hidden="1">
       <c r="A289" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>538</v>
+        <v>459</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>529</v>
+        <v>459</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" hidden="1">
       <c r="A290" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>539</v>
+        <v>460</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" hidden="1">
       <c r="A291" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>506</v>
+        <v>383</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>649</v>
+        <v>383</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" hidden="1">
       <c r="A292" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>541</v>
+        <v>461</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" hidden="1">
       <c r="A293" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>543</v>
+        <v>462</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" hidden="1">
       <c r="A294" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>544</v>
+        <v>424</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>545</v>
+        <v>424</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-    </row>
-    <row r="295" spans="1:8">
+      <c r="H294" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" hidden="1">
       <c r="A295" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>546</v>
+        <v>464</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>547</v>
+        <v>465</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" hidden="1">
       <c r="A296" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>548</v>
+        <v>466</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>549</v>
+        <v>467</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" hidden="1">
       <c r="A297" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>550</v>
+        <v>59</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" hidden="1">
       <c r="A298" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>552</v>
+        <v>43</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" hidden="1">
       <c r="A299" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>554</v>
+        <v>48</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" hidden="1">
       <c r="A300" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>556</v>
+        <v>50</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F300" s="2"/>
-      <c r="G300" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" hidden="1">
       <c r="A301" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F301" s="2"/>
-      <c r="G301" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>599</v>
+      </c>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" hidden="1">
       <c r="A302" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F302" s="2"/>
-      <c r="G302" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>600</v>
+      </c>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" hidden="1">
       <c r="A303" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>561</v>
+        <v>51</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F303" s="2"/>
-      <c r="G303" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" hidden="1">
       <c r="A304" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F304" s="2"/>
-      <c r="G304" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>602</v>
+      </c>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" hidden="1">
       <c r="A305" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F305" s="2"/>
-      <c r="G305" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>604</v>
+      </c>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" hidden="1">
       <c r="A306" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>567</v>
+        <v>605</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F306" s="2"/>
-      <c r="G306" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>605</v>
+      </c>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" hidden="1">
       <c r="A307" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" hidden="1">
       <c r="A308" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F308" s="2"/>
-      <c r="G308" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>607</v>
+      </c>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" hidden="1">
       <c r="A309" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F309" s="2"/>
-      <c r="G309" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>608</v>
+      </c>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" hidden="1">
       <c r="A310" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F310" s="2"/>
-      <c r="G310" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>609</v>
+      </c>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" hidden="1">
       <c r="A311" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
+        <v>610</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>610</v>
+      </c>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" hidden="1">
       <c r="A312" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F312" s="2"/>
-      <c r="G312" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" hidden="1">
       <c r="A313" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F313" s="2"/>
-      <c r="G313" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>612</v>
+      </c>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" hidden="1">
       <c r="A314" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>582</v>
+        <v>426</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F314" s="2"/>
-      <c r="G314" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>426</v>
+      </c>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" hidden="1">
       <c r="A315" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F315" s="2"/>
-      <c r="G315" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>613</v>
+      </c>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" hidden="1">
       <c r="A316" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F316" s="2"/>
-      <c r="G316" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>614</v>
+      </c>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" hidden="1">
       <c r="A317" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F317" s="2"/>
-      <c r="G317" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>616</v>
+      </c>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" hidden="1">
       <c r="A318" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F318" s="2"/>
-      <c r="G318" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>617</v>
+      </c>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" hidden="1">
       <c r="A319" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F319" s="2"/>
-      <c r="G319" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>618</v>
+      </c>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" hidden="1">
       <c r="A320" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F320" s="2"/>
-      <c r="G320" s="2"/>
+        <v>620</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>638</v>
+      </c>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" hidden="1">
       <c r="A321" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F321" s="2"/>
-      <c r="G321" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>621</v>
+      </c>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" hidden="1">
       <c r="A322" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F322" s="2"/>
-      <c r="G322" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>622</v>
+      </c>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" hidden="1">
       <c r="A323" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F323" s="2"/>
-      <c r="G323" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>624</v>
+      </c>
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" hidden="1">
       <c r="A324" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F324" s="2"/>
-      <c r="G324" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>625</v>
+      </c>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" hidden="1">
       <c r="A325" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F325" s="2"/>
-      <c r="G325" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>626</v>
+      </c>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" hidden="1">
       <c r="A326" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>639</v>
+      </c>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" hidden="1">
       <c r="A327" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>606</v>
+        <v>428</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" ht="30" hidden="1">
       <c r="A328" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F328" s="2"/>
-      <c r="G328" s="2"/>
-      <c r="H328" s="2"/>
-    </row>
-    <row r="329" spans="1:8">
+        <v>641</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" s="6" customFormat="1" hidden="1">
       <c r="A329" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="F329" s="2"/>
-      <c r="G329" s="2"/>
-      <c r="H329" s="2"/>
-    </row>
-    <row r="330" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H329" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" s="6" customFormat="1" hidden="1">
       <c r="A330" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F330" s="2"/>
-      <c r="G330" s="2"/>
-      <c r="H330" s="2"/>
-    </row>
-    <row r="331" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H330" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" hidden="1">
       <c r="A331" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>610</v>
+        <v>200</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>610</v>
+        <v>201</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
-      <c r="H331" s="2"/>
-    </row>
-    <row r="332" spans="1:8">
+      <c r="H331" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" hidden="1">
       <c r="A332" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>611</v>
+        <v>203</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>611</v>
+        <v>204</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
-      <c r="H332" s="2"/>
-    </row>
-    <row r="333" spans="1:8">
+      <c r="H332" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" hidden="1">
       <c r="A333" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D333" s="2">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>612</v>
+        <v>207</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
-      <c r="H333" s="2"/>
-    </row>
-    <row r="334" spans="1:8">
+      <c r="H333" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" hidden="1">
       <c r="A334" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D334" s="2">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>613</v>
+        <v>210</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
-      <c r="H334" s="2"/>
-    </row>
-    <row r="335" spans="1:8">
+      <c r="H334" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" hidden="1">
       <c r="A335" s="2" t="s">
-        <v>110</v>
+        <v>654</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D335" s="2">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>614</v>
+        <v>213</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" hidden="1">
       <c r="A336" s="2" t="s">
-        <v>110</v>
+        <v>654</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D336" s="2">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>615</v>
+        <v>215</v>
       </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" hidden="1">
       <c r="A337" s="2" t="s">
-        <v>110</v>
+        <v>654</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D337" s="2">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>616</v>
+        <v>217</v>
       </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" hidden="1">
       <c r="A338" s="2" t="s">
-        <v>110</v>
+        <v>654</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D338" s="2">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" hidden="1">
       <c r="A339" s="2" t="s">
-        <v>110</v>
+        <v>654</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D339" s="2">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>617</v>
+        <v>221</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" hidden="1">
       <c r="A340" s="2" t="s">
-        <v>47</v>
+        <v>654</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F340" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G340" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" hidden="1">
       <c r="A341" s="2" t="s">
-        <v>47</v>
+        <v>654</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F341" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G341" s="2" t="s">
-        <v>660</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F341" s="2"/>
+      <c r="G341" s="2"/>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" hidden="1">
       <c r="A342" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G342" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H342" s="2"/>
-    </row>
-    <row r="343" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" hidden="1">
       <c r="A343" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>618</v>
+        <v>225</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G343" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="H343" s="2"/>
-    </row>
-    <row r="344" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
+      <c r="H343" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" hidden="1">
       <c r="A344" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>619</v>
+        <v>227</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F344" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G344" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H344" s="2"/>
-    </row>
-    <row r="345" spans="1:8">
+        <v>228</v>
+      </c>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
+      <c r="H344" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" hidden="1">
       <c r="A345" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G345" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="F345" s="2"/>
+      <c r="G345" s="2"/>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" hidden="1">
       <c r="A346" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>621</v>
+        <v>362</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F346" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G346" s="2" t="s">
-        <v>621</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
       <c r="H346" s="2"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" hidden="1">
       <c r="A347" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>623</v>
+        <v>363</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="F347" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G347" s="2" t="s">
-        <v>623</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="F347" s="2"/>
+      <c r="G347" s="2"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" hidden="1">
       <c r="A348" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>624</v>
+        <v>364</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>624</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" hidden="1">
       <c r="A349" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>625</v>
+        <v>365</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="F349" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G349" s="2" t="s">
-        <v>625</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="F349" s="2"/>
+      <c r="G349" s="2"/>
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" hidden="1">
       <c r="A350" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>626</v>
+        <v>366</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F350" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G350" s="2" t="s">
-        <v>626</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" hidden="1">
       <c r="A351" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>627</v>
+        <v>368</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="F351" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G351" s="2" t="s">
-        <v>627</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" hidden="1">
       <c r="A352" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>628</v>
+        <v>369</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="F352" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G352" s="2" t="s">
-        <v>628</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" hidden="1">
       <c r="A353" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>629</v>
+        <v>371</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G353" s="2" t="s">
-        <v>629</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="F353" s="2"/>
+      <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" hidden="1">
       <c r="A354" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>630</v>
+        <v>373</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F354" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>630</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" hidden="1">
       <c r="A355" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>631</v>
+        <v>375</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F355" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G355" s="2" t="s">
-        <v>631</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" hidden="1">
       <c r="A356" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F356" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>445</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
       <c r="H356" s="2"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" hidden="1">
       <c r="A357" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>632</v>
+        <v>379</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F357" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>632</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F357" s="2"/>
+      <c r="G357" s="2"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" hidden="1">
       <c r="A358" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="F358" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>633</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" hidden="1">
       <c r="A359" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>634</v>
+        <v>382</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F359" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>635</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="F359" s="2"/>
+      <c r="G359" s="2"/>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" hidden="1">
       <c r="A360" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D360" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F360" s="2"/>
+      <c r="G360" s="2"/>
+      <c r="H360" s="2"/>
+    </row>
+    <row r="361" spans="1:8" hidden="1">
+      <c r="A361" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F361" s="2"/>
+      <c r="G361" s="2"/>
+      <c r="H361" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" hidden="1">
+      <c r="A362" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" hidden="1">
+      <c r="A363" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H363" s="2"/>
+    </row>
+    <row r="364" spans="1:8" hidden="1">
+      <c r="A364" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F364" s="2"/>
+    </row>
+    <row r="365" spans="1:8" s="2" customFormat="1" hidden="1">
+      <c r="A365" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" s="2" customFormat="1" hidden="1">
+      <c r="A366" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" hidden="1">
+      <c r="A367" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" hidden="1">
+      <c r="A368" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E360" s="2" t="s">
+      <c r="B368" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H368" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" hidden="1">
+      <c r="A369" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="F360" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G360" s="2" t="s">
+      <c r="B369" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H369" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" hidden="1">
+      <c r="A370" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="H360" s="2"/>
-    </row>
-    <row r="361" spans="1:8">
-      <c r="A361" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="E361" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F361" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G361" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="H361" s="2"/>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="A362" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="E362" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F362" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G362" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="H362" s="2"/>
-    </row>
-    <row r="363" spans="1:8">
-      <c r="A363" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="E363" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="F363" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G363" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="H363" s="2"/>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="A364" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="E364" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F364" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G364" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="H364" s="2"/>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="A365" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="E365" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F365" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G365" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="H365" s="2"/>
-    </row>
-    <row r="366" spans="1:8">
-      <c r="A366" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="E366" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="F366" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G366" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="H366" s="2"/>
-    </row>
-    <row r="367" spans="1:8">
-      <c r="A367" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="E367" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F367" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="H367" s="2"/>
-    </row>
-    <row r="368" spans="1:8">
-      <c r="A368" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="E368" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F368" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G368" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="H368" s="2"/>
-    </row>
-    <row r="369" spans="1:8">
-      <c r="A369" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F369" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G369" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="H369" s="2"/>
+      <c r="B370" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H370" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" hidden="1">
+      <c r="A371" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E371" t="s">
+        <v>411</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" hidden="1">
+      <c r="A372" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="H372" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" hidden="1">
+      <c r="A373" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>659</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H369"/>
+  <autoFilter ref="A1:H373">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Thema"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:H382">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/3. waardelijsten/IMKL2015 - 0.92 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.92 waardelijsten.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Waarden!$A$1:$H$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Waarden!$A$1:$H$388</definedName>
     <definedName name="IMKL">[1]Toelichting!$B$22</definedName>
     <definedName name="INSPIRE">[1]Toelichting!$B$23</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="668">
   <si>
     <t>Naam</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>ElectricityAppurtenanceTypeValue</t>
-  </si>
-  <si>
-    <t>TelecommunicationsAppurtenanceIMKLTypeValue</t>
   </si>
   <si>
     <t>OilGasChemicalsAppurtenanceTypeValue</t>
@@ -465,9 +462,6 @@
   </si>
   <si>
     <t>overig</t>
-  </si>
-  <si>
-    <t>Een type detail dat niet met de andere waarden is benoemd.</t>
   </si>
   <si>
     <t>bestaand</t>
@@ -889,9 +883,6 @@
     <t>kabelverdeler</t>
   </si>
   <si>
-    <t>Stijgleiding</t>
-  </si>
-  <si>
     <t>GTWP</t>
   </si>
   <si>
@@ -1009,42 +1000,24 @@
     <t>oilGasChemicalsNode</t>
   </si>
   <si>
-    <t>Olie-, gas- en chemicaliënnet-knooppunt</t>
-  </si>
-  <si>
     <t>Knooppunt in een olie-, gas- en chemicaliënnet.</t>
   </si>
   <si>
     <t>productionRegion</t>
   </si>
   <si>
-    <t>Productiegebied</t>
-  </si>
-  <si>
     <t>pumpingStation</t>
   </si>
   <si>
-    <t>Pompstation</t>
-  </si>
-  <si>
     <t>pump</t>
   </si>
   <si>
-    <t>Pomp</t>
-  </si>
-  <si>
     <t>storage</t>
   </si>
   <si>
-    <t>Opslagvoorziening</t>
-  </si>
-  <si>
     <t>terminal</t>
   </si>
   <si>
-    <t>Terminal</t>
-  </si>
-  <si>
     <t>naturalGas</t>
   </si>
   <si>
@@ -1480,9 +1453,6 @@
     <t>ABS</t>
   </si>
   <si>
-    <t xml:space="preserve">Acrylonitrile butadiene styrene (ABS). </t>
-  </si>
-  <si>
     <t>asbestos</t>
   </si>
   <si>
@@ -1513,21 +1483,12 @@
     <t>CPVC</t>
   </si>
   <si>
-    <t xml:space="preserve">Chlorinated polyvinyl chloride (CPVC). </t>
-  </si>
-  <si>
     <t>FRP</t>
   </si>
   <si>
-    <t xml:space="preserve">Fibre reinforced plastic (FRP). </t>
-  </si>
-  <si>
     <t>galvanizedSteel</t>
   </si>
   <si>
-    <t xml:space="preserve">Galvanized steel. </t>
-  </si>
-  <si>
     <t>masonry</t>
   </si>
   <si>
@@ -1537,48 +1498,27 @@
     <t>PB</t>
   </si>
   <si>
-    <t xml:space="preserve">Polybutylene (PB). </t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
-    <t xml:space="preserve">Polyethylene (PE). </t>
-  </si>
-  <si>
     <t>PEX</t>
   </si>
   <si>
-    <t xml:space="preserve">Cross-linked high-density polyethylene (PEX). </t>
-  </si>
-  <si>
     <t>PP</t>
   </si>
   <si>
-    <t xml:space="preserve">Polypropylene (PP). </t>
-  </si>
-  <si>
     <t>prestressedReinforcedConcrete</t>
   </si>
   <si>
-    <t xml:space="preserve">Prestressed reinforced concrete. </t>
-  </si>
-  <si>
     <t>PVC</t>
   </si>
   <si>
-    <t xml:space="preserve">Polyvinyl chloride (PVC). </t>
-  </si>
-  <si>
     <t>reinforcedConcrete</t>
   </si>
   <si>
     <t>RPMP</t>
   </si>
   <si>
-    <t xml:space="preserve">Reinforced polymer mortar (RPMP). </t>
-  </si>
-  <si>
     <t>steel</t>
   </si>
   <si>
@@ -1675,21 +1615,12 @@
     <t>AY</t>
   </si>
   <si>
-    <t>Unidentified type of plastics</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
-    <t>Unidentified material</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
-    <t>Other (details in remarks section)</t>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
@@ -2023,9 +1954,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Label aangrijpingspunt horizontaal  is links; label aangrijpingspunt verticaal  is onder.</t>
-  </si>
-  <si>
     <t>BuisleidingenTypeValue</t>
   </si>
   <si>
@@ -2053,10 +1981,100 @@
     <t>Afvalwater.</t>
   </si>
   <si>
-    <t>Type komt niet voor in waardelijst.</t>
-  </si>
-  <si>
-    <t>Type is onbekend.</t>
+    <t>stijgleiding</t>
+  </si>
+  <si>
+    <t>Waarde komt niet voor in waardelijst.</t>
+  </si>
+  <si>
+    <t>Waarde is onbekend.</t>
+  </si>
+  <si>
+    <t>Label aangrijpingspunt horizontaal is rechts; label aangrijpingspunt verticaal is boven.</t>
+  </si>
+  <si>
+    <t>Label aangrijpingspunt horizontaal is links; label aangrijpingspunt verticaal is onder.</t>
+  </si>
+  <si>
+    <t>Label aangrijpingspunt horizontaal is midden; label aangrijpingspunt verticaal is midden.</t>
+  </si>
+  <si>
+    <t>TelecommunicationsAppurtenanceTypeIMKLValue</t>
+  </si>
+  <si>
+    <t>olie-, gas- en chemicaliënnet-knooppunt</t>
+  </si>
+  <si>
+    <t>productiegebied</t>
+  </si>
+  <si>
+    <t>pomp</t>
+  </si>
+  <si>
+    <t>opslagvoorziening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chlorinated polyvinyl chloride (CPVC) </t>
+  </si>
+  <si>
+    <t>galvanized steel</t>
+  </si>
+  <si>
+    <t>polybutylene (PB)</t>
+  </si>
+  <si>
+    <t>polyethylene (PE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross-linked high-density polyethylene (PEX) </t>
+  </si>
+  <si>
+    <t>polypropylene (PP)</t>
+  </si>
+  <si>
+    <t>prestressed reinforced concrete</t>
+  </si>
+  <si>
+    <t>polyvinyl chloride (PVC)</t>
+  </si>
+  <si>
+    <t>reinforced polymer mortar (RPMP)</t>
+  </si>
+  <si>
+    <t>fibre reinforced plastic (FRP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acrylonitrile butadiene styrene (ABS) </t>
+  </si>
+  <si>
+    <t>unidentified type of plastics</t>
+  </si>
+  <si>
+    <t>unidentified material</t>
+  </si>
+  <si>
+    <t>other (details in remarks section)</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2135,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2131,6 +2149,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1"/>
@@ -2806,13 +2825,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:H390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D283" sqref="D283"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2822,8 +2840,8 @@
     <col min="3" max="3" width="41.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2853,7 +2871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2864,11 +2882,11 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2885,7 +2903,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2902,7 +2920,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -2910,18 +2928,18 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -2929,18 +2947,18 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -2948,18 +2966,18 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -2967,18 +2985,18 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -2986,18 +3004,18 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -3005,18 +3023,18 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -3024,18 +3042,18 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -3043,132 +3061,138 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" hidden="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" hidden="1">
+        <v>130</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1">
       <c r="A14" s="6" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
-        <v>31</v>
+      <c r="D14" s="9" t="s">
+        <v>661</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" hidden="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6">
-        <v>32</v>
+      <c r="D15" s="9" t="s">
+        <v>662</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" hidden="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="6">
-        <v>33</v>
+      <c r="D16" s="9" t="s">
+        <v>663</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" hidden="1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1">
       <c r="A17" s="6" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6">
-        <v>34</v>
+      <c r="D17" s="9" t="s">
+        <v>664</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" hidden="1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1">
       <c r="A18" s="6" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="6">
-        <v>35</v>
+      <c r="D18" s="9" t="s">
+        <v>665</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" hidden="1">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1">
       <c r="A19" s="6" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="6">
-        <v>36</v>
+      <c r="D19" s="9" t="s">
+        <v>666</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" hidden="1">
+        <v>143</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="6">
-        <v>37</v>
+      <c r="D20" s="9" t="s">
+        <v>667</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -3188,9 +3212,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -3210,9 +3234,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -3232,7 +3256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -3240,18 +3264,18 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -3259,18 +3283,18 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>91</v>
       </c>
@@ -3278,16 +3302,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
@@ -3295,16 +3319,16 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>91</v>
       </c>
@@ -3312,16 +3336,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
@@ -3329,16 +3353,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
@@ -3346,18 +3370,18 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>83</v>
       </c>
@@ -3365,18 +3389,18 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
@@ -3384,18 +3408,18 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
@@ -3403,18 +3427,18 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -3422,16 +3446,16 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -3439,16 +3463,16 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" hidden="1">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -3456,16 +3480,16 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -3473,16 +3497,16 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -3493,16 +3517,16 @@
         <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" hidden="1">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -3513,7 +3537,7 @@
         <v>93</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>60</v>
@@ -3522,7 +3546,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -3533,16 +3557,16 @@
         <v>93</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" hidden="1">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -3553,16 +3577,16 @@
         <v>93</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -3573,16 +3597,16 @@
         <v>93</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -3593,16 +3617,16 @@
         <v>93</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -3613,16 +3637,16 @@
         <v>93</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -3630,16 +3654,16 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="30" hidden="1">
+    <row r="46" spans="1:8" ht="30">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -3647,18 +3671,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -3666,18 +3690,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -3685,18 +3709,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -3704,18 +3728,18 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -3723,54 +3747,54 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8" s="2" customFormat="1">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1">
+      <c r="D51" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1">
+      <c r="D52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>82</v>
       </c>
@@ -3778,18 +3802,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
         <v>82</v>
       </c>
@@ -3797,99 +3821,113 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>646</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>646</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="E56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" hidden="1">
+      <c r="H56" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>624</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" hidden="1">
+      <c r="H57" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>623</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>160</v>
+      <c r="D58" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>625</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" hidden="1">
+      <c r="H58" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>623</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>161</v>
+      <c r="D59" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>626</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" hidden="1">
+      <c r="H59" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
@@ -3897,16 +3935,16 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" hidden="1">
+    <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
         <v>86</v>
       </c>
@@ -3914,16 +3952,16 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
         <v>86</v>
       </c>
@@ -3931,54 +3969,50 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30" hidden="1">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
         <v>80</v>
       </c>
@@ -3986,18 +4020,18 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30">
       <c r="A66" s="2" t="s">
         <v>80</v>
       </c>
@@ -4005,56 +4039,56 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1">
+      <c r="H66" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
         <v>85</v>
       </c>
@@ -4062,18 +4096,18 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" hidden="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
         <v>85</v>
       </c>
@@ -4081,3174 +4115,3166 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" hidden="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>634</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" hidden="1">
+      <c r="H71" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>634</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8" hidden="1">
+      <c r="H72" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>629</v>
+        <v>278</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>629</v>
+        <v>278</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>285</v>
+        <v>606</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>285</v>
+        <v>606</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" hidden="1">
+    <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" hidden="1">
+    <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" hidden="1">
+    <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" hidden="1">
+    <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" hidden="1">
+    <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" hidden="1">
+    <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1">
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>315</v>
+        <v>643</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:8" hidden="1">
+      <c r="H100" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>319</v>
+        <v>644</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8" hidden="1">
+    <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>323</v>
+        <v>645</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8" hidden="1">
+    <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>292</v>
+        <v>646</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" hidden="1">
+    <row r="107" spans="1:8" s="2" customFormat="1">
       <c r="A107" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="1:8" hidden="1">
+      <c r="D107" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:8" hidden="1">
+      <c r="D108" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8" hidden="1">
+    <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" hidden="1">
+    <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" hidden="1">
+    <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" hidden="1">
+    <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" hidden="1">
+    <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" hidden="1">
+    <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" hidden="1">
+    <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" hidden="1">
+    <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8" hidden="1">
+    <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8" hidden="1">
+    <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8" hidden="1">
+    <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8" hidden="1">
+    <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8" hidden="1">
+    <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:8" hidden="1">
+    <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" hidden="1">
+    <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" hidden="1">
+    <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" hidden="1">
+    <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" hidden="1">
+    <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8" hidden="1">
+    <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8" hidden="1">
+    <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" hidden="1">
+    <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" hidden="1">
+    <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8" hidden="1">
+    <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8" hidden="1">
+    <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" hidden="1">
+    <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8" hidden="1">
+    <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8" hidden="1">
+    <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" hidden="1">
+    <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" hidden="1">
+    <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>468</v>
+        <v>350</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>469</v>
+        <v>350</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" hidden="1">
+    <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>470</v>
+        <v>351</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>470</v>
+        <v>351</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" hidden="1">
+    <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>471</v>
+        <v>193</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>471</v>
+        <v>193</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-      <c r="H149" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1">
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-      <c r="H150" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1">
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8" s="2" customFormat="1">
       <c r="A151" s="2" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1">
+      <c r="D151" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="2" customFormat="1">
       <c r="A152" s="2" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-    </row>
-    <row r="153" spans="1:8" hidden="1">
+      <c r="D152" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>478</v>
+        <v>657</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" hidden="1">
+    <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>335</v>
+        <v>460</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>335</v>
+        <v>460</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8" hidden="1">
+    <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-    </row>
-    <row r="156" spans="1:8" hidden="1">
+      <c r="H155" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-    </row>
-    <row r="157" spans="1:8" hidden="1">
+      <c r="H156" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-    </row>
-    <row r="158" spans="1:8" hidden="1">
+      <c r="H157" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8" hidden="1">
+    <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" hidden="1">
+    <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>487</v>
+        <v>326</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>488</v>
+        <v>326</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8" hidden="1">
+    <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>490</v>
+        <v>647</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" hidden="1">
+    <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>492</v>
+        <v>656</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" hidden="1">
+    <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>494</v>
+        <v>648</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" hidden="1">
+    <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" hidden="1">
+    <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" hidden="1">
+    <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>499</v>
+        <v>649</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8" hidden="1">
+    <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>501</v>
+        <v>650</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8" hidden="1">
+    <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>502</v>
+        <v>651</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" hidden="1">
+    <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" hidden="1">
+    <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>504</v>
+        <v>653</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8" hidden="1">
+    <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>506</v>
+        <v>654</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" hidden="1">
+    <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" hidden="1">
+    <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>510</v>
+        <v>655</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" hidden="1">
+    <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" hidden="1">
+    <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" hidden="1">
+    <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8" hidden="1">
+    <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" hidden="1">
+    <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" hidden="1">
+    <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>630</v>
+        <v>492</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" hidden="1">
+    <row r="181" spans="1:8">
       <c r="A181" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" hidden="1">
+    <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8" hidden="1">
+    <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8" hidden="1">
+    <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8" hidden="1">
+    <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>531</v>
+        <v>474</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>532</v>
+        <v>607</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:8" hidden="1">
+    <row r="187" spans="1:8">
       <c r="A187" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8" hidden="1">
+    <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" hidden="1">
+    <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" hidden="1">
+    <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" hidden="1">
+    <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" hidden="1">
+    <row r="192" spans="1:8">
       <c r="A192" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" hidden="1">
+    <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>545</v>
+        <v>658</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" hidden="1">
+    <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>547</v>
+        <v>659</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8" hidden="1">
+    <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>549</v>
+        <v>660</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8" hidden="1">
+    <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8" hidden="1">
+    <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" hidden="1">
+    <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" hidden="1">
+    <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" hidden="1">
+    <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" hidden="1">
+    <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8" hidden="1">
+    <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="1:8" hidden="1">
+    <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>564</v>
+        <v>495</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8" hidden="1">
+    <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8" hidden="1">
+    <row r="205" spans="1:8">
       <c r="A205" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8" hidden="1">
+    <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="1:8" hidden="1">
+    <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="1:8" hidden="1">
+    <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="1:8" hidden="1">
+    <row r="209" spans="1:8">
       <c r="A209" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="1:8" hidden="1">
+    <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>577</v>
+        <v>543</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8" hidden="1">
+    <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" hidden="1">
+    <row r="212" spans="1:8">
       <c r="A212" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>581</v>
+        <v>475</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
     </row>
-    <row r="213" spans="1:8" hidden="1">
+    <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="1:8" hidden="1">
+    <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="1:8" hidden="1">
+    <row r="215" spans="1:8">
       <c r="A215" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>631</v>
+        <v>552</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="1:8" hidden="1">
+    <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>587</v>
+        <v>553</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>632</v>
+        <v>554</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="1:8" hidden="1">
+    <row r="217" spans="1:8">
       <c r="A217" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8" hidden="1">
+    <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8" hidden="1">
+    <row r="219" spans="1:8">
       <c r="A219" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:8" hidden="1">
+    <row r="220" spans="1:8">
       <c r="A220" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:8" hidden="1">
+    <row r="221" spans="1:8">
       <c r="A221" s="2" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8" hidden="1">
+    <row r="222" spans="1:8">
       <c r="A222" s="2" t="s">
-        <v>84</v>
+        <v>628</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>150</v>
+        <v>564</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>151</v>
+        <v>609</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
-      <c r="H222" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" hidden="1">
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="2" t="s">
-        <v>84</v>
+        <v>628</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>153</v>
+        <v>565</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>154</v>
+        <v>565</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
-      <c r="H223" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" hidden="1">
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="2" t="s">
-        <v>84</v>
+        <v>628</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>156</v>
+        <v>566</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>157</v>
+        <v>566</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
-      <c r="H224" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" hidden="1">
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="2" t="s">
-        <v>100</v>
+        <v>628</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>413</v>
+        <v>567</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>413</v>
+        <v>567</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="1:8" hidden="1">
+    <row r="226" spans="1:8">
       <c r="A226" s="2" t="s">
-        <v>100</v>
+        <v>628</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>414</v>
+        <v>568</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>414</v>
+        <v>568</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="227" spans="1:8" hidden="1">
+    <row r="227" spans="1:8">
       <c r="A227" s="2" t="s">
-        <v>100</v>
+        <v>628</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>415</v>
+        <v>569</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>415</v>
+        <v>569</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
     </row>
-    <row r="228" spans="1:8" hidden="1">
+    <row r="228" spans="1:8" s="2" customFormat="1">
       <c r="A228" s="2" t="s">
-        <v>100</v>
+        <v>628</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-    </row>
-    <row r="229" spans="1:8" hidden="1">
+      <c r="D228" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" s="2" customFormat="1">
       <c r="A229" s="2" t="s">
-        <v>100</v>
+        <v>628</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-    </row>
-    <row r="230" spans="1:8" hidden="1">
+      <c r="D229" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>419</v>
+        <v>148</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>419</v>
+        <v>149</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-    </row>
-    <row r="231" spans="1:8" hidden="1">
+      <c r="H230" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>420</v>
+        <v>151</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>420</v>
+        <v>152</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-    </row>
-    <row r="232" spans="1:8" hidden="1">
+      <c r="H231" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>421</v>
+        <v>154</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>421</v>
+        <v>155</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-    </row>
-    <row r="233" spans="1:8" hidden="1">
+      <c r="H232" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:8" hidden="1">
+    <row r="234" spans="1:8">
       <c r="A234" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
     </row>
-    <row r="235" spans="1:8" hidden="1">
+    <row r="235" spans="1:8">
       <c r="A235" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
     </row>
-    <row r="236" spans="1:8" hidden="1">
+    <row r="236" spans="1:8">
       <c r="A236" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="1:8" hidden="1">
+    <row r="237" spans="1:8">
       <c r="A237" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="1:8" hidden="1">
+    <row r="238" spans="1:8">
       <c r="A238" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:8" hidden="1">
+    <row r="239" spans="1:8">
       <c r="A239" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="1:8" hidden="1">
+    <row r="240" spans="1:8">
       <c r="A240" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="1:8" hidden="1">
+    <row r="241" spans="1:8">
       <c r="A241" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="1:8" hidden="1">
+    <row r="242" spans="1:8">
       <c r="A242" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="1:8" hidden="1">
+    <row r="243" spans="1:8">
       <c r="A243" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
     </row>
-    <row r="244" spans="1:8" hidden="1">
+    <row r="244" spans="1:8">
       <c r="A244" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>57</v>
+        <v>416</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>58</v>
+        <v>416</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
     </row>
-    <row r="245" spans="1:8" hidden="1">
+    <row r="245" spans="1:8">
       <c r="A245" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
     </row>
-    <row r="246" spans="1:8" hidden="1">
+    <row r="246" spans="1:8">
       <c r="A246" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>303</v>
+        <v>418</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
     </row>
-    <row r="247" spans="1:8" hidden="1">
+    <row r="247" spans="1:8">
       <c r="A247" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>138</v>
+        <v>419</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
     </row>
-    <row r="248" spans="1:8" hidden="1">
+    <row r="248" spans="1:8">
       <c r="A248" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="1:8" hidden="1">
+    <row r="249" spans="1:8">
       <c r="A249" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="1:8" hidden="1">
+    <row r="250" spans="1:8">
       <c r="A250" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
     </row>
-    <row r="251" spans="1:8" hidden="1">
+    <row r="251" spans="1:8">
       <c r="A251" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="1:8" hidden="1">
+    <row r="252" spans="1:8">
       <c r="A252" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>1</v>
@@ -7257,585 +7283,595 @@
         <v>56</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>445</v>
+        <v>57</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>446</v>
+        <v>58</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="1:8" hidden="1">
+    <row r="253" spans="1:8">
       <c r="A253" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>59</v>
+        <v>424</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>60</v>
+        <v>425</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="1:8" hidden="1">
+    <row r="254" spans="1:8">
       <c r="A254" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>448</v>
+        <v>300</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
-      <c r="H254" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" hidden="1">
+      <c r="H254" s="2"/>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>451</v>
+        <v>137</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
-      <c r="H255" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" hidden="1">
+      <c r="H255" s="2"/>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
-      <c r="H256" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" hidden="1">
+      <c r="H256" s="2"/>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
-      <c r="H257" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" hidden="1">
+      <c r="H257" s="2"/>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>265</v>
+        <v>432</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>265</v>
+        <v>433</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8" hidden="1">
+    <row r="259" spans="1:8">
       <c r="A259" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>266</v>
+        <v>434</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>266</v>
+        <v>435</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8" hidden="1">
+    <row r="260" spans="1:8">
       <c r="A260" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>267</v>
+        <v>436</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>267</v>
+        <v>437</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="1:8" hidden="1">
+    <row r="261" spans="1:8">
       <c r="A261" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="1:8" hidden="1">
+    <row r="262" spans="1:8" s="2" customFormat="1">
       <c r="A262" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" hidden="1">
+      <c r="D262" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" s="2" customFormat="1">
       <c r="A263" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-    </row>
-    <row r="264" spans="1:8" hidden="1">
+      <c r="D263" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>272</v>
+        <v>438</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>272</v>
+        <v>439</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-    </row>
-    <row r="265" spans="1:8" hidden="1">
+      <c r="H264" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>273</v>
+        <v>441</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>274</v>
+        <v>442</v>
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-    </row>
-    <row r="266" spans="1:8" hidden="1">
+      <c r="H265" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>275</v>
+        <v>444</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>275</v>
+        <v>445</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-    </row>
-    <row r="267" spans="1:8" hidden="1">
+      <c r="H266" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-    </row>
-    <row r="268" spans="1:8" hidden="1">
+      <c r="H267" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" s="2" t="s">
-        <v>94</v>
+        <v>642</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="1:8" hidden="1">
+    <row r="269" spans="1:8">
       <c r="A269" s="2" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8" hidden="1">
+    <row r="270" spans="1:8">
       <c r="A270" s="2" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
-    </row>
-    <row r="271" spans="1:8" hidden="1">
+      <c r="H270" s="2"/>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" s="2" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="1:8" hidden="1">
+    <row r="272" spans="1:8">
       <c r="A272" s="2" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-    </row>
-    <row r="273" spans="1:8" ht="285">
+      <c r="H272" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="2" t="s">
-        <v>87</v>
+        <v>642</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
-      <c r="H273" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" ht="45">
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="2" t="s">
-        <v>87</v>
+        <v>642</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>167</v>
+        <v>636</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>167</v>
+        <v>636</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
-      <c r="H274" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="75">
+      <c r="H274" s="2"/>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" s="2" t="s">
-        <v>87</v>
+        <v>642</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
-      <c r="H275" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="75">
+      <c r="H275" s="2"/>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" s="2" t="s">
-        <v>87</v>
+        <v>642</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
-      <c r="H276" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="45">
+      <c r="H276" s="2"/>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" s="2" t="s">
-        <v>87</v>
+        <v>642</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
-      <c r="H277" s="5" t="s">
-        <v>177</v>
-      </c>
+      <c r="H277" s="2"/>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="2" t="s">
-        <v>87</v>
+        <v>642</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
-      <c r="H278" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" ht="60">
+      <c r="H278" s="2"/>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" s="2" t="s">
-        <v>87</v>
+        <v>629</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
-      <c r="H279" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" ht="60">
+      <c r="H279" s="2"/>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" s="2" t="s">
-        <v>87</v>
+        <v>629</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
-      <c r="H280" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" ht="75">
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" s="2" t="s">
-        <v>87</v>
+        <v>629</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
-      <c r="H281" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+      <c r="H281" s="2"/>
+    </row>
+    <row r="282" spans="1:8" s="2" customFormat="1">
       <c r="A282" s="2" t="s">
-        <v>87</v>
+        <v>629</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+      <c r="D282" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" s="2" customFormat="1">
       <c r="A283" s="2" t="s">
-        <v>87</v>
+        <v>629</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D283" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="390">
+      <c r="D283" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="285">
       <c r="A284" s="2" t="s">
         <v>87</v>
       </c>
@@ -7843,15 +7879,15 @@
         <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
       <c r="H284" s="5" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="45">
@@ -7862,18 +7898,18 @@
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
       <c r="H285" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="75">
       <c r="A286" s="2" t="s">
         <v>87</v>
       </c>
@@ -7881,18 +7917,18 @@
         <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
-      <c r="H286" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+      <c r="H286" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="75">
       <c r="A287" s="2" t="s">
         <v>87</v>
       </c>
@@ -7900,463 +7936,437 @@
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
-      <c r="H287" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" hidden="1">
+      <c r="H287" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="45">
       <c r="A288" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>458</v>
+        <v>173</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>458</v>
+        <v>174</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
-    </row>
-    <row r="289" spans="1:8" hidden="1">
+      <c r="H288" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>459</v>
+        <v>176</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>459</v>
+        <v>177</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-    </row>
-    <row r="290" spans="1:8" hidden="1">
+      <c r="H289" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="60">
       <c r="A290" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>460</v>
+        <v>179</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>460</v>
+        <v>179</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-    </row>
-    <row r="291" spans="1:8" hidden="1">
+      <c r="H290" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="60">
       <c r="A291" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>383</v>
+        <v>181</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>383</v>
+        <v>181</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-    </row>
-    <row r="292" spans="1:8" hidden="1">
+      <c r="H291" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="75">
       <c r="A292" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>461</v>
+        <v>183</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>461</v>
+        <v>183</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-    </row>
-    <row r="293" spans="1:8" hidden="1">
+      <c r="H292" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>462</v>
+        <v>185</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>462</v>
+        <v>186</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-    </row>
-    <row r="294" spans="1:8" hidden="1">
+      <c r="H293" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>424</v>
+        <v>188</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>424</v>
+        <v>189</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" hidden="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="390">
       <c r="A295" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>464</v>
+        <v>191</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>465</v>
+        <v>191</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
-    </row>
-    <row r="296" spans="1:8" hidden="1">
+      <c r="H295" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="45">
       <c r="A296" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>466</v>
+        <v>193</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>467</v>
+        <v>193</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-    </row>
-    <row r="297" spans="1:8" hidden="1">
+      <c r="H296" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-    </row>
-    <row r="298" spans="1:8" hidden="1">
+      <c r="H297" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H298" s="2"/>
-    </row>
-    <row r="299" spans="1:8" hidden="1">
+        <v>143</v>
+      </c>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>48</v>
+        <v>449</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G299" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2"/>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2"/>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+      <c r="H301" s="2"/>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
+      <c r="H303" s="2"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+      <c r="H304" s="2"/>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+      <c r="H307" s="2"/>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+    </row>
+    <row r="309" spans="1:8" s="2" customFormat="1">
+      <c r="A309" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="H299" s="2"/>
-    </row>
-    <row r="300" spans="1:8" hidden="1">
-      <c r="A300" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H300" s="2"/>
-    </row>
-    <row r="301" spans="1:8" hidden="1">
-      <c r="A301" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="H301" s="2"/>
-    </row>
-    <row r="302" spans="1:8" hidden="1">
-      <c r="A302" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="H302" s="2"/>
-    </row>
-    <row r="303" spans="1:8" hidden="1">
-      <c r="A303" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H303" s="2"/>
-    </row>
-    <row r="304" spans="1:8" hidden="1">
-      <c r="A304" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H304" s="2"/>
-    </row>
-    <row r="305" spans="1:8" hidden="1">
-      <c r="A305" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G305" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="H305" s="2"/>
-    </row>
-    <row r="306" spans="1:8" hidden="1">
-      <c r="A306" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G306" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="H306" s="2"/>
-    </row>
-    <row r="307" spans="1:8" hidden="1">
-      <c r="A307" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="H307" s="2"/>
-    </row>
-    <row r="308" spans="1:8" hidden="1">
-      <c r="A308" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H308" s="2"/>
-    </row>
-    <row r="309" spans="1:8" hidden="1">
-      <c r="A309" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="H309" s="2"/>
-    </row>
-    <row r="310" spans="1:8" hidden="1">
+    </row>
+    <row r="310" spans="1:8" s="2" customFormat="1">
       <c r="A310" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H310" s="2"/>
-    </row>
-    <row r="311" spans="1:8" hidden="1">
+      <c r="D310" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" s="2" t="s">
         <v>47</v>
       </c>
@@ -8364,20 +8374,20 @@
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>610</v>
+        <v>43</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>610</v>
+        <v>43</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>610</v>
+        <v>43</v>
       </c>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8" hidden="1">
+    <row r="312" spans="1:8">
       <c r="A312" s="2" t="s">
         <v>47</v>
       </c>
@@ -8385,20 +8395,20 @@
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>611</v>
+        <v>48</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>611</v>
+        <v>49</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="1:8" hidden="1">
+    <row r="313" spans="1:8">
       <c r="A313" s="2" t="s">
         <v>47</v>
       </c>
@@ -8406,20 +8416,20 @@
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>612</v>
+        <v>50</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>612</v>
+        <v>50</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>612</v>
+        <v>50</v>
       </c>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="1:8" hidden="1">
+    <row r="314" spans="1:8">
       <c r="A314" s="2" t="s">
         <v>47</v>
       </c>
@@ -8427,20 +8437,20 @@
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>426</v>
+        <v>576</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>426</v>
+        <v>576</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>426</v>
+        <v>576</v>
       </c>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="1:8" hidden="1">
+    <row r="315" spans="1:8">
       <c r="A315" s="2" t="s">
         <v>47</v>
       </c>
@@ -8448,20 +8458,20 @@
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="1:8" hidden="1">
+    <row r="316" spans="1:8">
       <c r="A316" s="2" t="s">
         <v>47</v>
       </c>
@@ -8469,20 +8479,20 @@
         <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>614</v>
+        <v>51</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>614</v>
+        <v>51</v>
       </c>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="1:8" hidden="1">
+    <row r="317" spans="1:8">
       <c r="A317" s="2" t="s">
         <v>47</v>
       </c>
@@ -8490,20 +8500,20 @@
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8" hidden="1">
+    <row r="318" spans="1:8">
       <c r="A318" s="2" t="s">
         <v>47</v>
       </c>
@@ -8511,20 +8521,20 @@
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8" hidden="1">
+    <row r="319" spans="1:8">
       <c r="A319" s="2" t="s">
         <v>47</v>
       </c>
@@ -8532,20 +8542,20 @@
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:8" hidden="1">
+    <row r="320" spans="1:8">
       <c r="A320" s="2" t="s">
         <v>47</v>
       </c>
@@ -8553,20 +8563,20 @@
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>638</v>
+        <v>583</v>
       </c>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="1:8" hidden="1">
+    <row r="321" spans="1:8">
       <c r="A321" s="2" t="s">
         <v>47</v>
       </c>
@@ -8574,20 +8584,20 @@
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="1:8" hidden="1">
+    <row r="322" spans="1:8">
       <c r="A322" s="2" t="s">
         <v>47</v>
       </c>
@@ -8595,20 +8605,20 @@
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="1:8" hidden="1">
+    <row r="323" spans="1:8">
       <c r="A323" s="2" t="s">
         <v>47</v>
       </c>
@@ -8616,20 +8626,20 @@
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="1:8" hidden="1">
+    <row r="324" spans="1:8">
       <c r="A324" s="2" t="s">
         <v>47</v>
       </c>
@@ -8637,20 +8647,20 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:8" hidden="1">
+    <row r="325" spans="1:8">
       <c r="A325" s="2" t="s">
         <v>47</v>
       </c>
@@ -8658,20 +8668,20 @@
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8" hidden="1">
+    <row r="326" spans="1:8">
       <c r="A326" s="2" t="s">
         <v>47</v>
       </c>
@@ -8679,20 +8689,20 @@
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>639</v>
+        <v>589</v>
       </c>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8" hidden="1">
+    <row r="327" spans="1:8">
       <c r="A327" s="2" t="s">
         <v>47</v>
       </c>
@@ -8700,20 +8710,20 @@
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="1:8" ht="30" hidden="1">
+    <row r="328" spans="1:8">
       <c r="A328" s="2" t="s">
         <v>47</v>
       </c>
@@ -8721,898 +8731,1245 @@
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>641</v>
+        <v>590</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="H328" s="5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" s="6" customFormat="1" hidden="1">
+        <v>590</v>
+      </c>
+      <c r="H328" s="2"/>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B329" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H329" s="8" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" s="6" customFormat="1" hidden="1">
+      <c r="B329" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H329" s="2"/>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B330" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E330" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H330" s="8" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" hidden="1">
+      <c r="B330" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H330" s="2"/>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H331" s="2"/>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H332" s="2"/>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H333" s="2"/>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H334" s="2"/>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="H335" s="2"/>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H336" s="2"/>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H337" s="2"/>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="H338" s="2"/>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="H339" s="2"/>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H340" s="2"/>
+    </row>
+    <row r="341" spans="1:8" ht="30">
+      <c r="A341" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H341" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" s="6" customFormat="1">
+      <c r="A342" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E342" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H342" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" s="6" customFormat="1">
+      <c r="A343" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E343" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H343" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F331" s="2"/>
-      <c r="G331" s="2"/>
-      <c r="H331" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" hidden="1">
-      <c r="A332" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F332" s="2"/>
-      <c r="G332" s="2"/>
-      <c r="H332" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" hidden="1">
-      <c r="A333" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F333" s="2"/>
-      <c r="G333" s="2"/>
-      <c r="H333" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" hidden="1">
-      <c r="A334" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F334" s="2"/>
-      <c r="G334" s="2"/>
-      <c r="H334" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" hidden="1">
-      <c r="A335" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F335" s="2"/>
-      <c r="G335" s="2"/>
-      <c r="H335" s="2"/>
-    </row>
-    <row r="336" spans="1:8" hidden="1">
-      <c r="A336" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F336" s="2"/>
-      <c r="G336" s="2"/>
-      <c r="H336" s="2"/>
-    </row>
-    <row r="337" spans="1:8" hidden="1">
-      <c r="A337" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F337" s="2"/>
-      <c r="G337" s="2"/>
-      <c r="H337" s="2"/>
-    </row>
-    <row r="338" spans="1:8" hidden="1">
-      <c r="A338" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F338" s="2"/>
-      <c r="G338" s="2"/>
-      <c r="H338" s="2"/>
-    </row>
-    <row r="339" spans="1:8" hidden="1">
-      <c r="A339" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E339" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F339" s="2"/>
-      <c r="G339" s="2"/>
-      <c r="H339" s="2"/>
-    </row>
-    <row r="340" spans="1:8" hidden="1">
-      <c r="A340" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F340" s="2"/>
-      <c r="G340" s="2"/>
-      <c r="H340" s="2"/>
-    </row>
-    <row r="341" spans="1:8" hidden="1">
-      <c r="A341" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F341" s="2"/>
-      <c r="G341" s="2"/>
-      <c r="H341" s="2"/>
-    </row>
-    <row r="342" spans="1:8" hidden="1">
-      <c r="A342" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E342" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F342" s="2"/>
-      <c r="G342" s="2"/>
-      <c r="H342" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" hidden="1">
-      <c r="A343" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F343" s="2"/>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" hidden="1">
-      <c r="A344" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
       <c r="H344" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" hidden="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
-      <c r="H345" s="2"/>
-    </row>
-    <row r="346" spans="1:8" hidden="1">
+      <c r="H345" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>362</v>
+        <v>204</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>362</v>
+        <v>205</v>
       </c>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
-      <c r="H346" s="2"/>
-    </row>
-    <row r="347" spans="1:8" hidden="1">
+      <c r="H346" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>363</v>
+        <v>207</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>363</v>
+        <v>208</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
-      <c r="H347" s="2"/>
-    </row>
-    <row r="348" spans="1:8" hidden="1">
+      <c r="H347" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="2" t="s">
-        <v>97</v>
+        <v>630</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>364</v>
+        <v>211</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="1:8" hidden="1">
+    <row r="349" spans="1:8">
       <c r="A349" s="2" t="s">
-        <v>97</v>
+        <v>630</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>365</v>
+        <v>212</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>365</v>
+        <v>213</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="1:8" hidden="1">
+    <row r="350" spans="1:8">
       <c r="A350" s="2" t="s">
-        <v>97</v>
+        <v>630</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>366</v>
+        <v>214</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>367</v>
+        <v>215</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="1:8" hidden="1">
+    <row r="351" spans="1:8">
       <c r="A351" s="2" t="s">
-        <v>97</v>
+        <v>630</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>368</v>
+        <v>216</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>368</v>
+        <v>217</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="1:8" hidden="1">
+    <row r="352" spans="1:8">
       <c r="A352" s="2" t="s">
-        <v>97</v>
+        <v>630</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>369</v>
+        <v>218</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>370</v>
+        <v>219</v>
       </c>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="1:8" hidden="1">
+    <row r="353" spans="1:8">
       <c r="A353" s="2" t="s">
-        <v>97</v>
+        <v>630</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>371</v>
+        <v>193</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>372</v>
+        <v>193</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8" hidden="1">
+    <row r="354" spans="1:8">
       <c r="A354" s="2" t="s">
-        <v>97</v>
+        <v>630</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>374</v>
+        <v>143</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
-    </row>
-    <row r="355" spans="1:8" hidden="1">
+      <c r="H354" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>375</v>
+        <v>220</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
-      <c r="H355" s="2"/>
-    </row>
-    <row r="356" spans="1:8" hidden="1">
+      <c r="H355" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>377</v>
+        <v>223</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>378</v>
+        <v>223</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-    </row>
-    <row r="357" spans="1:8" hidden="1">
+      <c r="H356" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>379</v>
+        <v>225</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>379</v>
+        <v>226</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
-      <c r="H357" s="2"/>
-    </row>
-    <row r="358" spans="1:8" hidden="1">
+      <c r="H357" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>381</v>
+        <v>300</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8" hidden="1">
+    <row r="359" spans="1:8">
       <c r="A359" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="1:8" hidden="1">
+    <row r="360" spans="1:8">
       <c r="A360" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="1:8" hidden="1">
+    <row r="361" spans="1:8">
       <c r="A361" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
-      <c r="H361" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" hidden="1">
+      <c r="H361" s="2"/>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" hidden="1">
+        <v>356</v>
+      </c>
+      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
+      <c r="H362" s="2"/>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="F363" s="2"/>
+      <c r="G363" s="2"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8" hidden="1">
+    <row r="364" spans="1:8">
       <c r="A364" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="F364" s="2"/>
-    </row>
-    <row r="365" spans="1:8" s="2" customFormat="1" hidden="1">
+      <c r="G364" s="2"/>
+      <c r="H364" s="2"/>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" s="2" customFormat="1" hidden="1">
+        <v>361</v>
+      </c>
+      <c r="F365" s="2"/>
+      <c r="G365" s="2"/>
+      <c r="H365" s="2"/>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H366" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" hidden="1">
+        <v>363</v>
+      </c>
+      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
+      <c r="H366" s="2"/>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D367" s="2" t="s">
-        <v>59</v>
+        <v>364</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" hidden="1">
+        <v>365</v>
+      </c>
+      <c r="F367" s="2"/>
+      <c r="G367" s="2"/>
+      <c r="H367" s="2"/>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" s="2" t="s">
-        <v>636</v>
+        <v>96</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H368" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" hidden="1">
+        <v>367</v>
+      </c>
+      <c r="F368" s="2"/>
+      <c r="G368" s="2"/>
+      <c r="H368" s="2"/>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" s="2" t="s">
-        <v>636</v>
+        <v>96</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H369" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" hidden="1">
+        <v>369</v>
+      </c>
+      <c r="F369" s="2"/>
+      <c r="G369" s="2"/>
+      <c r="H369" s="2"/>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" s="2" t="s">
-        <v>636</v>
+        <v>96</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H370" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" hidden="1">
+        <v>370</v>
+      </c>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
+      <c r="H370" s="2"/>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" s="2" t="s">
-        <v>636</v>
+        <v>96</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E371" t="s">
-        <v>411</v>
-      </c>
-      <c r="H371" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" hidden="1">
+        <v>371</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
+      <c r="H371" s="2"/>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372" s="2" t="s">
-        <v>636</v>
+        <v>96</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D372" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
+      <c r="H372" s="2"/>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F373" s="2"/>
+      <c r="G373" s="2"/>
+      <c r="H373" s="2"/>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+      <c r="H374" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="A375" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H376" s="2"/>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F377" s="2"/>
+    </row>
+    <row r="378" spans="1:8" s="2" customFormat="1">
+      <c r="A378" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" s="2" customFormat="1">
+      <c r="A379" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H379" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" s="2" customFormat="1">
+      <c r="A381" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E381" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F381" s="6"/>
+      <c r="G381" s="6"/>
+      <c r="H381" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" s="2" customFormat="1">
+      <c r="A382" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E382" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F382" s="6"/>
+      <c r="G382" s="6"/>
+      <c r="H382" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H383" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H384" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E385" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E372" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="H372" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" hidden="1">
-      <c r="A373" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D373" s="2" t="s">
+      <c r="H385" t="s">
         <v>400</v>
       </c>
-      <c r="E373" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="H373" s="2" t="s">
-        <v>659</v>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E386" t="s">
+        <v>402</v>
+      </c>
+      <c r="H386" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="A387" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="H387" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="H388" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" s="2" customFormat="1">
+      <c r="A389" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E389" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F389" s="6"/>
+      <c r="G389" s="6"/>
+      <c r="H389" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" s="2" customFormat="1">
+      <c r="A390" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E390" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F390" s="6"/>
+      <c r="G390" s="6"/>
+      <c r="H390" s="8" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H373">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Thema"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:H388">
+    <filterColumn colId="0"/>
     <sortState ref="A2:H382">
       <sortCondition ref="A1"/>
     </sortState>
